--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_134.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_134.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32583-d1657233-Reviews-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>55</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Comfort-Suites-La-Puente.h3231117.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_134.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_134.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="231">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,569 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r576542525-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>32583</t>
+  </si>
+  <si>
+    <t>1657233</t>
+  </si>
+  <si>
+    <t>576542525</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>Comfortable stay</t>
+  </si>
+  <si>
+    <t>It's one of the top hotels in la puente. It's a small facility but well kept. The room was nice and the bed was comfy. The ac worked perfectly. Would be nicer if they had a bigger tv in the room. Staff was friendly and are doing a good job.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r564056090-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>564056090</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>Excellent location for an LA trip</t>
+  </si>
+  <si>
+    <t>The suite was very nice: modern, clean, and spacious for our needs. It was more upscale than other Comfort brands that we've visited. The location is excellent for an LA trip with good access to the major highways and within walking distance from shopping and food. Even though we were on the "quieter" parking lot side, the amount of traffic was still enough that you could hear cars regularly. That wasn't so much of an issue when it came to sleeping. One night, however, there was a very loud house party very close by that played music until the early morning. The breakfast was average with limited selection and ok quality. The gym was horrible as it is very cramped and the weight lifting (multi-use pulley system) machine wasn't working. Parking was adequate but I can see it overfilling during the summer. Overall, would recommend and return.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>The suite was very nice: modern, clean, and spacious for our needs. It was more upscale than other Comfort brands that we've visited. The location is excellent for an LA trip with good access to the major highways and within walking distance from shopping and food. Even though we were on the "quieter" parking lot side, the amount of traffic was still enough that you could hear cars regularly. That wasn't so much of an issue when it came to sleeping. One night, however, there was a very loud house party very close by that played music until the early morning. The breakfast was average with limited selection and ok quality. The gym was horrible as it is very cramped and the weight lifting (multi-use pulley system) machine wasn't working. Parking was adequate but I can see it overfilling during the summer. Overall, would recommend and return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r563054297-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>563054297</t>
+  </si>
+  <si>
+    <t>02/26/2018</t>
+  </si>
+  <si>
+    <t>POOR MANAGEMENT</t>
+  </si>
+  <si>
+    <t>We stayed one night at this hotel on 1/17/18 and found a bedbug in our room. We immediately took a picture of it and showed the front desk attendant who took our number down and told us that his manager would call us the next day. After leaving the front desk we stopped by the breakfast area, I went to grab my boyfriend an English muffin, and was disgusted when I saw that the muffin was covered in mold. I wanted to inform the breakfast attendant as I had seen her walking around but when I asked for her at the front desk she was nowhere to be found. I then informed the same desk attendant about the mold and he nonchalantly replied with a simple “ok”. As for the bedbug issue, we never got a phone call from the manager as promised so I called the hotel a few days later. We still had absolutely NO luck getting a hold of the manager, almost everyone we talked to spoke terrible English and I had a hard time understanding what they were saying. The manager was always “unavailable” and apparently there was no other person available to do a simple refund. After about two weeks we were finally able to talk to her and she told us that the refund had been issued. However when we checked our bank statement a week later, she had CHARGED us for an extra...We stayed one night at this hotel on 1/17/18 and found a bedbug in our room. We immediately took a picture of it and showed the front desk attendant who took our number down and told us that his manager would call us the next day. After leaving the front desk we stopped by the breakfast area, I went to grab my boyfriend an English muffin, and was disgusted when I saw that the muffin was covered in mold. I wanted to inform the breakfast attendant as I had seen her walking around but when I asked for her at the front desk she was nowhere to be found. I then informed the same desk attendant about the mold and he nonchalantly replied with a simple “ok”. As for the bedbug issue, we never got a phone call from the manager as promised so I called the hotel a few days later. We still had absolutely NO luck getting a hold of the manager, almost everyone we talked to spoke terrible English and I had a hard time understanding what they were saying. The manager was always “unavailable” and apparently there was no other person available to do a simple refund. After about two weeks we were finally able to talk to her and she told us that the refund had been issued. However when we checked our bank statement a week later, she had CHARGED us for an extra night rather than refunding it! We then had to go through the misery of trying to get a hold of her again. It is now the end of February and we have still not received our full refund. I called back tonight to try to figure it out ONCE AGAIN and spoke to a Maria Mendoza who was incredibly rude and immediately told me that the bed bug claim was “not true”- without even acknowledging our other complaint about the moldy English muffins. She talked over me numerous times and claimed that she knew all about our issue as if we were a nuisance to her. She was incredibly unprofessional, especially when she told me that it was OUR responsibility to call the credit card company even after another employee told me that it was an issue on their end. Because of the unprofessional attitudes and awful customer service, I will never stay at this hotel or a Choice Hotel again as it is a food safety hazard and a complete nightmare to contact any type of helpful employee. We are more than a month in this process and still have not received our full refund. STAY AWAY!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>We stayed one night at this hotel on 1/17/18 and found a bedbug in our room. We immediately took a picture of it and showed the front desk attendant who took our number down and told us that his manager would call us the next day. After leaving the front desk we stopped by the breakfast area, I went to grab my boyfriend an English muffin, and was disgusted when I saw that the muffin was covered in mold. I wanted to inform the breakfast attendant as I had seen her walking around but when I asked for her at the front desk she was nowhere to be found. I then informed the same desk attendant about the mold and he nonchalantly replied with a simple “ok”. As for the bedbug issue, we never got a phone call from the manager as promised so I called the hotel a few days later. We still had absolutely NO luck getting a hold of the manager, almost everyone we talked to spoke terrible English and I had a hard time understanding what they were saying. The manager was always “unavailable” and apparently there was no other person available to do a simple refund. After about two weeks we were finally able to talk to her and she told us that the refund had been issued. However when we checked our bank statement a week later, she had CHARGED us for an extra...We stayed one night at this hotel on 1/17/18 and found a bedbug in our room. We immediately took a picture of it and showed the front desk attendant who took our number down and told us that his manager would call us the next day. After leaving the front desk we stopped by the breakfast area, I went to grab my boyfriend an English muffin, and was disgusted when I saw that the muffin was covered in mold. I wanted to inform the breakfast attendant as I had seen her walking around but when I asked for her at the front desk she was nowhere to be found. I then informed the same desk attendant about the mold and he nonchalantly replied with a simple “ok”. As for the bedbug issue, we never got a phone call from the manager as promised so I called the hotel a few days later. We still had absolutely NO luck getting a hold of the manager, almost everyone we talked to spoke terrible English and I had a hard time understanding what they were saying. The manager was always “unavailable” and apparently there was no other person available to do a simple refund. After about two weeks we were finally able to talk to her and she told us that the refund had been issued. However when we checked our bank statement a week later, she had CHARGED us for an extra night rather than refunding it! We then had to go through the misery of trying to get a hold of her again. It is now the end of February and we have still not received our full refund. I called back tonight to try to figure it out ONCE AGAIN and spoke to a Maria Mendoza who was incredibly rude and immediately told me that the bed bug claim was “not true”- without even acknowledging our other complaint about the moldy English muffins. She talked over me numerous times and claimed that she knew all about our issue as if we were a nuisance to her. She was incredibly unprofessional, especially when she told me that it was OUR responsibility to call the credit card company even after another employee told me that it was an issue on their end. Because of the unprofessional attitudes and awful customer service, I will never stay at this hotel or a Choice Hotel again as it is a food safety hazard and a complete nightmare to contact any type of helpful employee. We are more than a month in this process and still have not received our full refund. STAY AWAY!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r528122976-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>528122976</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t>Good nights sleep</t>
+  </si>
+  <si>
+    <t>This was a nice place to stay.  The hotel staff was friendly, the rooms were clean and the breakfast was tasty.  We stayed here 2 times in the last month.  Both times we were very happy with our stay.  The room was good sized and the bed was comfortable.  The room was clean as was the bathroom.  The only thing I wished is that they had more USB ports for charging electronics, but they did have plenty of sockets for us to plug into and charge using our own USB chargers.  Breakfast was good all 3 mornings we were there.  One morning we even had chicken and waffles.  Still it is mostly a carbohydrate's dream, but over all it was good.  The rooms come with free wifi, there is plenty of off street parking and there is even a couple of spots for motorcycles.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>This was a nice place to stay.  The hotel staff was friendly, the rooms were clean and the breakfast was tasty.  We stayed here 2 times in the last month.  Both times we were very happy with our stay.  The room was good sized and the bed was comfortable.  The room was clean as was the bathroom.  The only thing I wished is that they had more USB ports for charging electronics, but they did have plenty of sockets for us to plug into and charge using our own USB chargers.  Breakfast was good all 3 mornings we were there.  One morning we even had chicken and waffles.  Still it is mostly a carbohydrate's dream, but over all it was good.  The rooms come with free wifi, there is plenty of off street parking and there is even a couple of spots for motorcycles.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r512428439-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>512428439</t>
+  </si>
+  <si>
+    <t>08/13/2017</t>
+  </si>
+  <si>
+    <t>Great value!</t>
+  </si>
+  <si>
+    <t>Stayed here for four nights. The front desk and the kitchen lady were very professional and welcoming. The hotel is conveniently situated, was priced considerably lower than other similar hotels for this time of the year, and offered a great value. Had the usual breakfast options, and was pleasantly surprised to find hot oatmeal as well (which is a rarity for the Choice Hotel chains). Beds and pillows were super comfortable, which have never failed us at any Comfort chain.The only negative points are that some of the fixtures and furniture in the room were worn out/not maintained. Nothing to the magnitude of being a major concern, however.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r500531670-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>500531670</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Overnight stay</t>
+  </si>
+  <si>
+    <t>The room is rather old and mildly dirty. The carpet is definitely dirty. The price is also little high for $166./night. However, customer service was great! No perks for being a diamond level of Choice Hotel</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r443907003-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>443907003</t>
+  </si>
+  <si>
+    <t>12/12/2016</t>
+  </si>
+  <si>
+    <t>Great hotel with the most friendly staff!</t>
+  </si>
+  <si>
+    <t>It was a pleasure to stay at Comfort Suites. The rooms, hallways and eating area were very clean and neat. The staff were extremely friendly and helpful, especially Ms Angelina Arellano. I would definitely recommend this hotel.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r433116080-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>433116080</t>
+  </si>
+  <si>
+    <t>10/30/2016</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>We have an event to go to at Pacific Palms in the City of Industry, unfortunately the rooms were outrageously expensive. Luckily, we found this hotel nearby, a quick uber ride to and from. The place was comfortably located in a quiet intersection of Glendora and Hacienda. Surprisingly we got their "Platinum Suite" 2 King beds with living space, complete with a microwave, small refrigerator and coffee maker. The room was big and clean. Even though it was located in busy intersection, the rooms were quiet and very comfortable. All the staff we encountered were very professional and friendly, they really made our stay very comfortable. As a coffee drinker, I loved the idea of coffee maker in the room, however it was not necessary because they have coffee available in the lobby, always fresh. They even served breakfast from 7am to 10am, including fresh waffle maker. Shout out to Almita Ramos for booking our reservation. Overall, I rate this place "10" and all my friends agreed that between Pacific Palms or Comfort Suites, our choice is Comfort Suites. Thank you, we will return for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>We have an event to go to at Pacific Palms in the City of Industry, unfortunately the rooms were outrageously expensive. Luckily, we found this hotel nearby, a quick uber ride to and from. The place was comfortably located in a quiet intersection of Glendora and Hacienda. Surprisingly we got their "Platinum Suite" 2 King beds with living space, complete with a microwave, small refrigerator and coffee maker. The room was big and clean. Even though it was located in busy intersection, the rooms were quiet and very comfortable. All the staff we encountered were very professional and friendly, they really made our stay very comfortable. As a coffee drinker, I loved the idea of coffee maker in the room, however it was not necessary because they have coffee available in the lobby, always fresh. They even served breakfast from 7am to 10am, including fresh waffle maker. Shout out to Almita Ramos for booking our reservation. Overall, I rate this place "10" and all my friends agreed that between Pacific Palms or Comfort Suites, our choice is Comfort Suites. Thank you, we will return for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r427756087-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>427756087</t>
+  </si>
+  <si>
+    <t>10/13/2016</t>
+  </si>
+  <si>
+    <t>Termites at my house!</t>
+  </si>
+  <si>
+    <t>I live in the area. I got the bad news my house has termites &amp; I had to be out for 2nights 3days. I thought I guess I will try that new hotel. Boy am I pleasantly surprised! Nice size room with little living room area. Small fridge &amp; microwave. Peaceful enough. Great full free breakfast and unlimited coffee! Oh and coming home in the evenings to fresh baked really good chocolate chip cookies helped! Comfortable beds. Comfy pillows. Clean bathrooms! Now I know where to send all my out of town guests!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r373845170-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>373845170</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel while testing for a potential job.  The hotel was well maintained and the room was quite comfortable.  The staff was very friendly and professional.  There is more than adequate parking in the rear.  Please be aware of billing practice when using a debit card versus a credit card to hold the room.  If a debit card is used to hold the room and an alternate payment method such as cash or a credit card is used to pay the bill, it will take up to 10 days to reverse the debit card hold.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r371178830-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>371178830</t>
+  </si>
+  <si>
+    <t>05/08/2016</t>
+  </si>
+  <si>
+    <t>Good hotel in a quiet area</t>
+  </si>
+  <si>
+    <t>The hotel has good standard with spacious suites. Clean and well maintained. The area is quiet and felt safe. Good parking facilities, and good wifi connection. Breakfast was decent. Grocery store and some fast food restaurants only a few steps away.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r369390396-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>369390396</t>
+  </si>
+  <si>
+    <t>05/01/2016</t>
+  </si>
+  <si>
+    <t>Met our expectations</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel one night as we were attending a family outing in nearby Hacienda Heights. Quiet. Very comfortable king bed. Nice layout. WiFi worked very well .Only a 2 floor hotel but was very convenient for us. Looked at reviews before booking and it had consistent good ratings. Had the breakfast buffet and it was pretty good and being able to cook your own waffles made it nice. Quite a few families were staying there also and seemed to be enjoying themselves. The staff was friendly and helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r290586583-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>290586583</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>A pleasant surprise with an excellent staff</t>
+  </si>
+  <si>
+    <t>We had a family function nearby and booked this because there are not a lot of hotels nearby.  The place was modern, clean and staff was really accommodating.  Check in was a breeze, the parking was well lit and we felt safe leaving our Lexus there.  Our room was spacious and clean.  There was a nice note from Alma and a bowl of fruit and chocolates.  They recognized that we were Gold members, which was a surprise as that has not happened at other Comfort Suites.  The wifi was speedy and I felt safe driving to the nearby Hawaiian restaurant and grocery store.  The second floor hallway was arctic but the temperature in the room was as expected and the beds were very comfortable.  The shower head was a nice surprise but the lighting in the bathroom was dismal.  Overall, I would highly recommend this hotel and I thought it was good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>We had a family function nearby and booked this because there are not a lot of hotels nearby.  The place was modern, clean and staff was really accommodating.  Check in was a breeze, the parking was well lit and we felt safe leaving our Lexus there.  Our room was spacious and clean.  There was a nice note from Alma and a bowl of fruit and chocolates.  They recognized that we were Gold members, which was a surprise as that has not happened at other Comfort Suites.  The wifi was speedy and I felt safe driving to the nearby Hawaiian restaurant and grocery store.  The second floor hallway was arctic but the temperature in the room was as expected and the beds were very comfortable.  The shower head was a nice surprise but the lighting in the bathroom was dismal.  Overall, I would highly recommend this hotel and I thought it was good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r280335486-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>280335486</t>
+  </si>
+  <si>
+    <t>06/15/2015</t>
+  </si>
+  <si>
+    <t>Typical Comfort Suites</t>
+  </si>
+  <si>
+    <t>Stayed here for business for three nights. Check-in went well - the attendant was kind and helpful. The room had an overpowering room freshener smell to which I had to adjust. Climate control worked well and I liked that the fan had an "on" setting. The room seemed clean enough, but there were some mildew stains in the caulk in the shower. The noise level in the room was bad considering the herd of elephants staying above us. Also, if I were to stay here again I'd ask for a room on the back side of the building since the street noise is heavy on the front side. Beds were comfortable for the most part, as were the pillows. Breakfast was typical fare but seemed fresh. Selection was pretty adequate. It was also ready well before the posted time. Overall the staff was friendly and helpful. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for business for three nights. Check-in went well - the attendant was kind and helpful. The room had an overpowering room freshener smell to which I had to adjust. Climate control worked well and I liked that the fan had an "on" setting. The room seemed clean enough, but there were some mildew stains in the caulk in the shower. The noise level in the room was bad considering the herd of elephants staying above us. Also, if I were to stay here again I'd ask for a room on the back side of the building since the street noise is heavy on the front side. Beds were comfortable for the most part, as were the pillows. Breakfast was typical fare but seemed fresh. Selection was pretty adequate. It was also ready well before the posted time. Overall the staff was friendly and helpful. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r279607755-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>279607755</t>
+  </si>
+  <si>
+    <t>06/11/2015</t>
+  </si>
+  <si>
+    <t>Missing Items</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel 5/14/15 thru 5/17/15 for the USC graduation. We chose this hotel because of the reviews. When we left for Las Vegas and arrived at our hotel I noted 2 pieces of clothing missing. I had worn the outfit to my granddaughter's graduation and had hung it up in the closet at the Comfort Suites in La Puente, CA on Glendora Avenue. My husband immediately called Comfort Suites and reported the missing items. He was told to call back the next business day, which he did. The next day my husband told the receptionist off the missing items (dark blue Susan Graver top and white pants). He gave them our cell phone number where we could be reached and was told that someone would return our call. No call ever came. He called back the next day and was told the same thing.. Today they would look into it and call us back. The call never came. We left LAX  on the on the 21st of June heading home. I'm still upset over the loss of my outfit and WE'LL NEVER STAY AT THAT COMFORT SUITE EVER AGAIN.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel 5/14/15 thru 5/17/15 for the USC graduation. We chose this hotel because of the reviews. When we left for Las Vegas and arrived at our hotel I noted 2 pieces of clothing missing. I had worn the outfit to my granddaughter's graduation and had hung it up in the closet at the Comfort Suites in La Puente, CA on Glendora Avenue. My husband immediately called Comfort Suites and reported the missing items. He was told to call back the next business day, which he did. The next day my husband told the receptionist off the missing items (dark blue Susan Graver top and white pants). He gave them our cell phone number where we could be reached and was told that someone would return our call. No call ever came. He called back the next day and was told the same thing.. Today they would look into it and call us back. The call never came. We left LAX  on the on the 21st of June heading home. I'm still upset over the loss of my outfit and WE'LL NEVER STAY AT THAT COMFORT SUITE EVER AGAIN.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r256092157-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>256092157</t>
+  </si>
+  <si>
+    <t>02/23/2015</t>
+  </si>
+  <si>
+    <t>BEST COMFORT SUITES ON SAN GABRIEL VALLEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Comfort Suites in Southern California I have stayed in! Wonderful management and sraff. Clean comfortable rooms. Convenient location for all major San Gabriel Valley activities and venues. Very good breakfast. Good off street parking.  Safe and quiet location. Recommended highly!  </t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r252093593-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>252093593</t>
+  </si>
+  <si>
+    <t>02/01/2015</t>
+  </si>
+  <si>
+    <t>Will return!</t>
+  </si>
+  <si>
+    <t>Husband and I came to La Puente for a quick weekend visit. Chose location because we would be stopping at A Mi Havienda for a concert. Rooms were clean, bed was comfy, staff were very nice, continental breakfast was decent &amp; price was more than reasonable. We plan to return.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r247869513-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>247869513</t>
+  </si>
+  <si>
+    <t>01/06/2015</t>
+  </si>
+  <si>
+    <t>Exactly what we needed!</t>
+  </si>
+  <si>
+    <t>Comfort Suites at La Puente was exactly what we needed!We stayed there New Years Eve in preparation for the Rose Parade. The room was comfortable, affordable and the management even made us breakfast early to get us off to a good start (a 6AM hot meal made the 27 degree weather bearable).The front desk even directed us to a nearby elegant resort to enjoy a 5 course NYE dinner celebrationPerfect!</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r237393644-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>237393644</t>
+  </si>
+  <si>
+    <t>11/01/2014</t>
+  </si>
+  <si>
+    <t>Can't beat it for the price in this area!</t>
+  </si>
+  <si>
+    <t>Nice hotel, you won't find a better deal for the price.  Rooms are very clean, well appointed and secure, but the area is a little rough.  I personally wouldn't be out walking the neighborhood alone after dark. The staff was outstanding.  Business seems to be bringing me to this area once a year or so and I wouldn't hesitate to stay at this hotel again.  The continental breakfast is a typical hotel continental breakfast it'll fill you up but if you're looking for great food, find a restaurant.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r235027683-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>235027683</t>
+  </si>
+  <si>
+    <t>10/18/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel, not crazy about location</t>
+  </si>
+  <si>
+    <t>Needed a place to stay and stayed here because of the reviews. The hotel staff was very friendly. The room was nice but in the shower there was two mold spots. Liked that they gave you two pillows that were soft and two that were firm. Slept in so I did not eat breakfast. Traveling by myself, I did not feel comfortable in the neighborhood at night. Not too much around here to do or see. Would not stay here again just because of the neighborhood but would stay at another Comfort Suites.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r230758271-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>230758271</t>
+  </si>
+  <si>
+    <t>09/24/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel Experience</t>
+  </si>
+  <si>
+    <t>The night before checking into this hotel we had stay in a Comfort suites hotel near Sea World in San Diego. It was a complete nightmare. This hotel was the complete . The staff was friendly, professional and we'll trained. The room was immaculate,  and the handicap room was actually an accesible room, not just a room with a grab bar in the restroom. The breakfast was great, there was a very good selection of TV channels. We actually enjoyed our 4 day stay here thanks to ownership that actually cares about the quality of their hotel. Well Done ! We hope to return in the next few months and we will certainly be making reservations with you again. It is a pleasure to experience such a well run hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>The night before checking into this hotel we had stay in a Comfort suites hotel near Sea World in San Diego. It was a complete nightmare. This hotel was the complete . The staff was friendly, professional and we'll trained. The room was immaculate,  and the handicap room was actually an accesible room, not just a room with a grab bar in the restroom. The breakfast was great, there was a very good selection of TV channels. We actually enjoyed our 4 day stay here thanks to ownership that actually cares about the quality of their hotel. Well Done ! We hope to return in the next few months and we will certainly be making reservations with you again. It is a pleasure to experience such a well run hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r214207072-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>214207072</t>
+  </si>
+  <si>
+    <t>07/07/2014</t>
+  </si>
+  <si>
+    <t>New property in city of industry area</t>
+  </si>
+  <si>
+    <t>Small hotel that is very clean with nice pillow top bed.  Breakfast was typical but you are three blocks to landmark "Donut Hole" which has lots of choices.  Small workout room to work off the bear claws.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r210654075-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>210654075</t>
+  </si>
+  <si>
+    <t>06/16/2014</t>
+  </si>
+  <si>
+    <t>awesome value extremely clean</t>
+  </si>
+  <si>
+    <t>I chose this motel as it was close to where I had to do business.And what a score!!!Clean rooms, comfortable bed, easy parking, easy quick breakfast and excellent value, one of the best yet.Best of all were the staff - couldn't do enough, always happy and quick with advise of the area.would I stay here again?YES in a heart beat.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r204523967-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>204523967</t>
+  </si>
+  <si>
+    <t>05/07/2014</t>
+  </si>
+  <si>
+    <t>The Manager saved the day....</t>
+  </si>
+  <si>
+    <t>Here on my last night of a 3 night business trip, ultimately very happy I chose this hotel over the one recommended by my company. The first night here, my TV didn't work and they couldn't fix it until the next day because maintenance had gone home for the day. When I came in on day 2, I went to the desk and asked about it, and they assured me it had been fixxed...well, it wasn't. I don't have a TV at home (a lifestyle choice) so I will admit that when I stay in a hotel, I enjoy watching some. Well, I went to the desk expecting to hear that no maintenance was available since it was once again, early evening. But this time, the Manager - a very professional and friendly lady named Maria - said if I didn't mind moving my room, she'd give me the only one left. The 2 room suite. I am alone on this trip, so I'm not even using the second room - but it was kind of her to accomodate me because in doing so I imagine she gave up some revenue. Naturally things still didn't go so well in the "move". Some of it was issues with the card "keys" and some of it my own stupidity, but ultimately I had my TV.
+OK, so now about this place. It's a very pleasant business hotel with nice furnishings and a...Here on my last night of a 3 night business trip, ultimately very happy I chose this hotel over the one recommended by my company. The first night here, my TV didn't work and they couldn't fix it until the next day because maintenance had gone home for the day. When I came in on day 2, I went to the desk and asked about it, and they assured me it had been fixxed...well, it wasn't. I don't have a TV at home (a lifestyle choice) so I will admit that when I stay in a hotel, I enjoy watching some. Well, I went to the desk expecting to hear that no maintenance was available since it was once again, early evening. But this time, the Manager - a very professional and friendly lady named Maria - said if I didn't mind moving my room, she'd give me the only one left. The 2 room suite. I am alone on this trip, so I'm not even using the second room - but it was kind of her to accomodate me because in doing so I imagine she gave up some revenue. Naturally things still didn't go so well in the "move". Some of it was issues with the card "keys" and some of it my own stupidity, but ultimately I had my TV.OK, so now about this place. It's a very pleasant business hotel with nice furnishings and a VERY comfortable bed. I like a softer bed and this one was perfect. The room is spotless. There is a microwave, coffee maker, refrigerator, etc. The morning breakfast is typical hotel fare, but it's hot and fresh. They must have recently put in the universal weight machine that one reviewer wished was here back in March of this year, so perhaps they reacted to that comment. If so, they did so quickly. There isn't much in the area for dining, but that's not their fault and the City of Industry and Azusa are close by with better choices for a short drive.So one final comment. I came in the room tonite - again, my third and last night here. I found 2 bottles of complementary water, a roll of "lifesavers" candy and a nice note from Maria saying thanks for my patience. I feel that I should have given HER the "lifesavers" as that in essence is what she did for me. Thanks, Maria.MoreShow less</t>
+  </si>
+  <si>
+    <t>Here on my last night of a 3 night business trip, ultimately very happy I chose this hotel over the one recommended by my company. The first night here, my TV didn't work and they couldn't fix it until the next day because maintenance had gone home for the day. When I came in on day 2, I went to the desk and asked about it, and they assured me it had been fixxed...well, it wasn't. I don't have a TV at home (a lifestyle choice) so I will admit that when I stay in a hotel, I enjoy watching some. Well, I went to the desk expecting to hear that no maintenance was available since it was once again, early evening. But this time, the Manager - a very professional and friendly lady named Maria - said if I didn't mind moving my room, she'd give me the only one left. The 2 room suite. I am alone on this trip, so I'm not even using the second room - but it was kind of her to accomodate me because in doing so I imagine she gave up some revenue. Naturally things still didn't go so well in the "move". Some of it was issues with the card "keys" and some of it my own stupidity, but ultimately I had my TV.
+OK, so now about this place. It's a very pleasant business hotel with nice furnishings and a...Here on my last night of a 3 night business trip, ultimately very happy I chose this hotel over the one recommended by my company. The first night here, my TV didn't work and they couldn't fix it until the next day because maintenance had gone home for the day. When I came in on day 2, I went to the desk and asked about it, and they assured me it had been fixxed...well, it wasn't. I don't have a TV at home (a lifestyle choice) so I will admit that when I stay in a hotel, I enjoy watching some. Well, I went to the desk expecting to hear that no maintenance was available since it was once again, early evening. But this time, the Manager - a very professional and friendly lady named Maria - said if I didn't mind moving my room, she'd give me the only one left. The 2 room suite. I am alone on this trip, so I'm not even using the second room - but it was kind of her to accomodate me because in doing so I imagine she gave up some revenue. Naturally things still didn't go so well in the "move". Some of it was issues with the card "keys" and some of it my own stupidity, but ultimately I had my TV.OK, so now about this place. It's a very pleasant business hotel with nice furnishings and a VERY comfortable bed. I like a softer bed and this one was perfect. The room is spotless. There is a microwave, coffee maker, refrigerator, etc. The morning breakfast is typical hotel fare, but it's hot and fresh. They must have recently put in the universal weight machine that one reviewer wished was here back in March of this year, so perhaps they reacted to that comment. If so, they did so quickly. There isn't much in the area for dining, but that's not their fault and the City of Industry and Azusa are close by with better choices for a short drive.So one final comment. I came in the room tonite - again, my third and last night here. I found 2 bottles of complementary water, a roll of "lifesavers" candy and a nice note from Maria saying thanks for my patience. I feel that I should have given HER the "lifesavers" as that in essence is what she did for me. Thanks, Maria.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r156908180-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>156908180</t>
+  </si>
+  <si>
+    <t>04/07/2013</t>
+  </si>
+  <si>
+    <t>Great place in La Puente, Ca</t>
+  </si>
+  <si>
+    <t>Newer hotel in La Puente.  Rooms are very nice and spacious.  Rates are reasonable.  Hot breakfast from 6:30-9:30 am (eggs, sausage, toast, waffles, etc).  Rooms have work desk, flat screen plasmas.   Beds are very comfortable.  Some parking on the road out front for larger vehicles, but most parking is inside the walled off garage- seems safe. (10 ft height limit going in).  Stayed one night and called down to extend for another night- liked it so much.  Pretty easy off the 60 (Hacienda drive)Will stay again.  No problem.  Staff was very nice.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r149452315-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>149452315</t>
+  </si>
+  <si>
+    <t>01/11/2013</t>
+  </si>
+  <si>
+    <t>Inexpensive, Clean, Good Choice.</t>
+  </si>
+  <si>
+    <t>My family and I were out to see the Tournament of Roses parade in Pasadena, CA.  We stayed 12/31-1/2.  The hotel was relatively quiet given that it was New Year's Eve.  I could hear the traffic outside from time to time, but I expect this from any city hotel.  Liquor/Convenience store located across the street.  It was a good location.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r140344726-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>140344726</t>
+  </si>
+  <si>
+    <t>09/15/2012</t>
+  </si>
+  <si>
+    <t>Nice hotel. Great tip for local public pool and health club in my review.</t>
+  </si>
+  <si>
+    <t>I travel to work in the West Covina schools several times a year.  I have stayed at this hotel for the past 3 years and have always found it very clean, very comfortable, and quite safe.  Staff is friendly and helpful.  I wish the rooms weren't quite so expensive, but they are exceptionally clean and SMOKE FREE!I'd like to offer a tip for people who like to swim or work out.  Although it is a bit of a drive, there is an awesome facility fairly close to this hotel. The San Dimas Swim &amp; Racquet Club is like your own mini health club! They offer walk-in rates for Lap Swimming, Aerobics, Racquetball, and Weight Room. There is also a steam and sauna which really helps after a long day. Oh, and their are lockers, showers, etc. that are nice and clean. It is located at 990 W. Covina Blvd. San Dimas, CA 91773MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>I travel to work in the West Covina schools several times a year.  I have stayed at this hotel for the past 3 years and have always found it very clean, very comfortable, and quite safe.  Staff is friendly and helpful.  I wish the rooms weren't quite so expensive, but they are exceptionally clean and SMOKE FREE!I'd like to offer a tip for people who like to swim or work out.  Although it is a bit of a drive, there is an awesome facility fairly close to this hotel. The San Dimas Swim &amp; Racquet Club is like your own mini health club! They offer walk-in rates for Lap Swimming, Aerobics, Racquetball, and Weight Room. There is also a steam and sauna which really helps after a long day. Oh, and their are lockers, showers, etc. that are nice and clean. It is located at 990 W. Covina Blvd. San Dimas, CA 91773More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r73836546-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>73836546</t>
+  </si>
+  <si>
+    <t>08/04/2010</t>
+  </si>
+  <si>
+    <t>Newer hotel, looks clean, good value, marginal neighborhood</t>
+  </si>
+  <si>
+    <t>This hotel is relatively new. It looks very clean. Has high speed internet and modest breakfast included. Due to its newer construction it is a little better than the average Comfort Inn. The location is a so-so neighborhood, not a slum but not all that nice either. Fine for one night of business, not a good vacation destination.</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r61788619-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>61788619</t>
+  </si>
+  <si>
+    <t>04/17/2010</t>
+  </si>
+  <si>
+    <t>Nice, new, small and reasonably priced in an older area</t>
+  </si>
+  <si>
+    <t>Brand new 41-unit franchisee in the middle of town.  I chose to stay here because it is only a couple of miles from my client, and very reasonbly-priced.  My first concern was the area in which it is located, however, the facility is surrounded by a brick wall that creates a secure parking courtyard that is entered by an vehcile opening  that leads to parking spaces and an offstreet entrance.  Clean, nice suite-type rooms.  Flat screen, HD TV's with a a nice complement of cable channels, both wired and wireless internet, microwave, fridge.  Breakfast is the usual Comfort Suites menu, hard boiled eggs, cereal, juices, and the ever-present waffle-maker.  In an older area of town (a Big Lots and Payless Shoes are across the street), but safe with the enclosed "castle walls."  Occasional urban noise of cars, dogs and sirens, but generally no problem sleeping.  Note that the vehicle entrance is to the left of the lobby door that faces Glendora Ave., which is generally locked because access is from the courtyard.  Parking is possibly an issue for an oversize or non-standard vehicle.I was happy to save the ten mile commute with the pack out to the Diamond Bar lodging establishments where I pay a lot more.  I definitely will be staying here again, and highly recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>Brand new 41-unit franchisee in the middle of town.  I chose to stay here because it is only a couple of miles from my client, and very reasonbly-priced.  My first concern was the area in which it is located, however, the facility is surrounded by a brick wall that creates a secure parking courtyard that is entered by an vehcile opening  that leads to parking spaces and an offstreet entrance.  Clean, nice suite-type rooms.  Flat screen, HD TV's with a a nice complement of cable channels, both wired and wireless internet, microwave, fridge.  Breakfast is the usual Comfort Suites menu, hard boiled eggs, cereal, juices, and the ever-present waffle-maker.  In an older area of town (a Big Lots and Payless Shoes are across the street), but safe with the enclosed "castle walls."  Occasional urban noise of cars, dogs and sirens, but generally no problem sleeping.  Note that the vehicle entrance is to the left of the lobby door that faces Glendora Ave., which is generally locked because access is from the courtyard.  Parking is possibly an issue for an oversize or non-standard vehicle.I was happy to save the ten mile commute with the pack out to the Diamond Bar lodging establishments where I pay a lot more.  I definitely will be staying here again, and highly recommend it.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1211,1815 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>118</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>129</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" t="s">
+        <v>134</v>
+      </c>
+      <c r="L15" t="s">
+        <v>135</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>136</v>
+      </c>
+      <c r="O15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>136</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" t="s">
+        <v>152</v>
+      </c>
+      <c r="K18" t="s">
+        <v>153</v>
+      </c>
+      <c r="L18" t="s">
+        <v>154</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J19" t="s">
+        <v>157</v>
+      </c>
+      <c r="K19" t="s">
+        <v>158</v>
+      </c>
+      <c r="L19" t="s">
+        <v>159</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>162</v>
+      </c>
+      <c r="J20" t="s">
+        <v>163</v>
+      </c>
+      <c r="K20" t="s">
+        <v>164</v>
+      </c>
+      <c r="L20" t="s">
+        <v>165</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>166</v>
+      </c>
+      <c r="O20" t="s">
+        <v>68</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" t="s">
+        <v>170</v>
+      </c>
+      <c r="L21" t="s">
+        <v>171</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>172</v>
+      </c>
+      <c r="O21" t="s">
+        <v>173</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>175</v>
+      </c>
+      <c r="J22" t="s">
+        <v>176</v>
+      </c>
+      <c r="K22" t="s">
+        <v>177</v>
+      </c>
+      <c r="L22" t="s">
+        <v>178</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>179</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" t="s">
+        <v>184</v>
+      </c>
+      <c r="L23" t="s">
+        <v>185</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>186</v>
+      </c>
+      <c r="O23" t="s">
+        <v>68</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>188</v>
+      </c>
+      <c r="J24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K24" t="s">
+        <v>190</v>
+      </c>
+      <c r="L24" t="s">
+        <v>191</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>192</v>
+      </c>
+      <c r="O24" t="s">
+        <v>173</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" t="s">
+        <v>195</v>
+      </c>
+      <c r="K25" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25" t="s">
+        <v>197</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>192</v>
+      </c>
+      <c r="O25" t="s">
+        <v>68</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>199</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>200</v>
+      </c>
+      <c r="J26" t="s">
+        <v>201</v>
+      </c>
+      <c r="K26" t="s">
+        <v>202</v>
+      </c>
+      <c r="L26" t="s">
+        <v>203</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>204</v>
+      </c>
+      <c r="O26" t="s">
+        <v>68</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>206</v>
+      </c>
+      <c r="J27" t="s">
+        <v>207</v>
+      </c>
+      <c r="K27" t="s">
+        <v>208</v>
+      </c>
+      <c r="L27" t="s">
+        <v>209</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>210</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>212</v>
+      </c>
+      <c r="J28" t="s">
+        <v>213</v>
+      </c>
+      <c r="K28" t="s">
+        <v>214</v>
+      </c>
+      <c r="L28" t="s">
+        <v>215</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>216</v>
+      </c>
+      <c r="O28" t="s">
+        <v>68</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>218</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>219</v>
+      </c>
+      <c r="J29" t="s">
+        <v>220</v>
+      </c>
+      <c r="K29" t="s">
+        <v>221</v>
+      </c>
+      <c r="L29" t="s">
+        <v>222</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>223</v>
+      </c>
+      <c r="O29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>224</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>225</v>
+      </c>
+      <c r="J30" t="s">
+        <v>226</v>
+      </c>
+      <c r="K30" t="s">
+        <v>227</v>
+      </c>
+      <c r="L30" t="s">
+        <v>228</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O30" t="s">
+        <v>68</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>230</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_134.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_134.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="260">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>David P</t>
+  </si>
+  <si>
     <t>06/29/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>JetLug</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r564056090-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>The suite was very nice: modern, clean, and spacious for our needs. It was more upscale than other Comfort brands that we've visited. The location is excellent for an LA trip with good access to the major highways and within walking distance from shopping and food. Even though we were on the "quieter" parking lot side, the amount of traffic was still enough that you could hear cars regularly. That wasn't so much of an issue when it came to sleeping. One night, however, there was a very loud house party very close by that played music until the early morning. The breakfast was average with limited selection and ok quality. The gym was horrible as it is very cramped and the weight lifting (multi-use pulley system) machine wasn't working. Parking was adequate but I can see it overfilling during the summer. Overall, would recommend and return.More</t>
   </si>
   <si>
+    <t>tinahobson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r563054297-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>We stayed one night at this hotel on 1/17/18 and found a bedbug in our room. We immediately took a picture of it and showed the front desk attendant who took our number down and told us that his manager would call us the next day. After leaving the front desk we stopped by the breakfast area, I went to grab my boyfriend an English muffin, and was disgusted when I saw that the muffin was covered in mold. I wanted to inform the breakfast attendant as I had seen her walking around but when I asked for her at the front desk she was nowhere to be found. I then informed the same desk attendant about the mold and he nonchalantly replied with a simple “ok”. As for the bedbug issue, we never got a phone call from the manager as promised so I called the hotel a few days later. We still had absolutely NO luck getting a hold of the manager, almost everyone we talked to spoke terrible English and I had a hard time understanding what they were saying. The manager was always “unavailable” and apparently there was no other person available to do a simple refund. After about two weeks we were finally able to talk to her and she told us that the refund had been issued. However when we checked our bank statement a week later, she had CHARGED us for an extra...We stayed one night at this hotel on 1/17/18 and found a bedbug in our room. We immediately took a picture of it and showed the front desk attendant who took our number down and told us that his manager would call us the next day. After leaving the front desk we stopped by the breakfast area, I went to grab my boyfriend an English muffin, and was disgusted when I saw that the muffin was covered in mold. I wanted to inform the breakfast attendant as I had seen her walking around but when I asked for her at the front desk she was nowhere to be found. I then informed the same desk attendant about the mold and he nonchalantly replied with a simple “ok”. As for the bedbug issue, we never got a phone call from the manager as promised so I called the hotel a few days later. We still had absolutely NO luck getting a hold of the manager, almost everyone we talked to spoke terrible English and I had a hard time understanding what they were saying. The manager was always “unavailable” and apparently there was no other person available to do a simple refund. After about two weeks we were finally able to talk to her and she told us that the refund had been issued. However when we checked our bank statement a week later, she had CHARGED us for an extra night rather than refunding it! We then had to go through the misery of trying to get a hold of her again. It is now the end of February and we have still not received our full refund. I called back tonight to try to figure it out ONCE AGAIN and spoke to a Maria Mendoza who was incredibly rude and immediately told me that the bed bug claim was “not true”- without even acknowledging our other complaint about the moldy English muffins. She talked over me numerous times and claimed that she knew all about our issue as if we were a nuisance to her. She was incredibly unprofessional, especially when she told me that it was OUR responsibility to call the credit card company even after another employee told me that it was an issue on their end. Because of the unprofessional attitudes and awful customer service, I will never stay at this hotel or a Choice Hotel again as it is a food safety hazard and a complete nightmare to contact any type of helpful employee. We are more than a month in this process and still have not received our full refund. STAY AWAY!More</t>
   </si>
   <si>
+    <t>wayneusd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r528122976-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t>This was a nice place to stay.  The hotel staff was friendly, the rooms were clean and the breakfast was tasty.  We stayed here 2 times in the last month.  Both times we were very happy with our stay.  The room was good sized and the bed was comfortable.  The room was clean as was the bathroom.  The only thing I wished is that they had more USB ports for charging electronics, but they did have plenty of sockets for us to plug into and charge using our own USB chargers.  Breakfast was good all 3 mornings we were there.  One morning we even had chicken and waffles.  Still it is mostly a carbohydrate's dream, but over all it was good.  The rooms come with free wifi, there is plenty of off street parking and there is even a couple of spots for motorcycles.More</t>
   </si>
   <si>
+    <t>ZimplyZuperb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r512428439-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>Nina T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r500531670-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t>The room is rather old and mildly dirty. The carpet is definitely dirty. The price is also little high for $166./night. However, customer service was great! No perks for being a diamond level of Choice Hotel</t>
   </si>
   <si>
+    <t>Vivien H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r443907003-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -300,6 +321,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>Vangie0712</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r433116080-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -324,6 +348,9 @@
     <t>We have an event to go to at Pacific Palms in the City of Industry, unfortunately the rooms were outrageously expensive. Luckily, we found this hotel nearby, a quick uber ride to and from. The place was comfortably located in a quiet intersection of Glendora and Hacienda. Surprisingly we got their "Platinum Suite" 2 King beds with living space, complete with a microwave, small refrigerator and coffee maker. The room was big and clean. Even though it was located in busy intersection, the rooms were quiet and very comfortable. All the staff we encountered were very professional and friendly, they really made our stay very comfortable. As a coffee drinker, I loved the idea of coffee maker in the room, however it was not necessary because they have coffee available in the lobby, always fresh. They even served breakfast from 7am to 10am, including fresh waffle maker. Shout out to Almita Ramos for booking our reservation. Overall, I rate this place "10" and all my friends agreed that between Pacific Palms or Comfort Suites, our choice is Comfort Suites. Thank you, we will return for sure.More</t>
   </si>
   <si>
+    <t>Skar72</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r427756087-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -339,6 +366,9 @@
     <t>I live in the area. I got the bad news my house has termites &amp; I had to be out for 2nights 3days. I thought I guess I will try that new hotel. Boy am I pleasantly surprised! Nice size room with little living room area. Small fridge &amp; microwave. Peaceful enough. Great full free breakfast and unlimited coffee! Oh and coming home in the evenings to fresh baked really good chocolate chip cookies helped! Comfortable beds. Comfy pillows. Clean bathrooms! Now I know where to send all my out of town guests!</t>
   </si>
   <si>
+    <t>Darchelle M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r373845170-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -357,6 +387,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Stian B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r371178830-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -375,6 +408,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>bevvbobb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r369390396-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -390,6 +426,9 @@
     <t>Stayed at this hotel one night as we were attending a family outing in nearby Hacienda Heights. Quiet. Very comfortable king bed. Nice layout. WiFi worked very well .Only a 2 floor hotel but was very convenient for us. Looked at reviews before booking and it had consistent good ratings. Had the breakfast buffet and it was pretty good and being able to cook your own waffles made it nice. Quite a few families were staying there also and seemed to be enjoying themselves. The staff was friendly and helpful.</t>
   </si>
   <si>
+    <t>Sandradot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r290586583-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -411,6 +450,9 @@
     <t>We had a family function nearby and booked this because there are not a lot of hotels nearby.  The place was modern, clean and staff was really accommodating.  Check in was a breeze, the parking was well lit and we felt safe leaving our Lexus there.  Our room was spacious and clean.  There was a nice note from Alma and a bowl of fruit and chocolates.  They recognized that we were Gold members, which was a surprise as that has not happened at other Comfort Suites.  The wifi was speedy and I felt safe driving to the nearby Hawaiian restaurant and grocery store.  The second floor hallway was arctic but the temperature in the room was as expected and the beds were very comfortable.  The shower head was a nice surprise but the lighting in the bathroom was dismal.  Overall, I would highly recommend this hotel and I thought it was good value.More</t>
   </si>
   <si>
+    <t>Michael S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r280335486-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -432,6 +474,9 @@
     <t>Stayed here for business for three nights. Check-in went well - the attendant was kind and helpful. The room had an overpowering room freshener smell to which I had to adjust. Climate control worked well and I liked that the fan had an "on" setting. The room seemed clean enough, but there were some mildew stains in the caulk in the shower. The noise level in the room was bad considering the herd of elephants staying above us. Also, if I were to stay here again I'd ask for a room on the back side of the building since the street noise is heavy on the front side. Beds were comfortable for the most part, as were the pillows. Breakfast was typical fare but seemed fresh. Selection was pretty adequate. It was also ready well before the posted time. Overall the staff was friendly and helpful. More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r279607755-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -450,6 +495,9 @@
     <t>My husband and I stayed at this hotel 5/14/15 thru 5/17/15 for the USC graduation. We chose this hotel because of the reviews. When we left for Las Vegas and arrived at our hotel I noted 2 pieces of clothing missing. I had worn the outfit to my granddaughter's graduation and had hung it up in the closet at the Comfort Suites in La Puente, CA on Glendora Avenue. My husband immediately called Comfort Suites and reported the missing items. He was told to call back the next business day, which he did. The next day my husband told the receptionist off the missing items (dark blue Susan Graver top and white pants). He gave them our cell phone number where we could be reached and was told that someone would return our call. No call ever came. He called back the next day and was told the same thing.. Today they would look into it and call us back. The call never came. We left LAX  on the on the 21st of June heading home. I'm still upset over the loss of my outfit and WE'LL NEVER STAY AT THAT COMFORT SUITE EVER AGAIN.More</t>
   </si>
   <si>
+    <t>Daryl H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r256092157-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -468,6 +516,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>Dark_Choc-a-holic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r252093593-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -483,6 +534,9 @@
     <t>Husband and I came to La Puente for a quick weekend visit. Chose location because we would be stopping at A Mi Havienda for a concert. Rooms were clean, bed was comfy, staff were very nice, continental breakfast was decent &amp; price was more than reasonable. We plan to return.</t>
   </si>
   <si>
+    <t>Beachplum3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r247869513-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -501,6 +555,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>Jay W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r237393644-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -519,6 +576,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>LoveMauitoomuch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r235027683-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -540,6 +600,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Lawrence C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r230758271-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -561,6 +624,9 @@
     <t>The night before checking into this hotel we had stay in a Comfort suites hotel near Sea World in San Diego. It was a complete nightmare. This hotel was the complete . The staff was friendly, professional and we'll trained. The room was immaculate,  and the handicap room was actually an accesible room, not just a room with a grab bar in the restroom. The breakfast was great, there was a very good selection of TV channels. We actually enjoyed our 4 day stay here thanks to ownership that actually cares about the quality of their hotel. Well Done ! We hope to return in the next few months and we will certainly be making reservations with you again. It is a pleasure to experience such a well run hotel.More</t>
   </si>
   <si>
+    <t>Robertb75040</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r214207072-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -579,6 +645,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>uter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r210654075-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -595,6 +664,9 @@
   </si>
   <si>
     <t>May 2014</t>
+  </si>
+  <si>
+    <t>JerryPPhoenix</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r204523967-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
@@ -617,6 +689,9 @@
 OK, so now about this place. It's a very pleasant business hotel with nice furnishings and a...Here on my last night of a 3 night business trip, ultimately very happy I chose this hotel over the one recommended by my company. The first night here, my TV didn't work and they couldn't fix it until the next day because maintenance had gone home for the day. When I came in on day 2, I went to the desk and asked about it, and they assured me it had been fixxed...well, it wasn't. I don't have a TV at home (a lifestyle choice) so I will admit that when I stay in a hotel, I enjoy watching some. Well, I went to the desk expecting to hear that no maintenance was available since it was once again, early evening. But this time, the Manager - a very professional and friendly lady named Maria - said if I didn't mind moving my room, she'd give me the only one left. The 2 room suite. I am alone on this trip, so I'm not even using the second room - but it was kind of her to accomodate me because in doing so I imagine she gave up some revenue. Naturally things still didn't go so well in the "move". Some of it was issues with the card "keys" and some of it my own stupidity, but ultimately I had my TV.OK, so now about this place. It's a very pleasant business hotel with nice furnishings and a VERY comfortable bed. I like a softer bed and this one was perfect. The room is spotless. There is a microwave, coffee maker, refrigerator, etc. The morning breakfast is typical hotel fare, but it's hot and fresh. They must have recently put in the universal weight machine that one reviewer wished was here back in March of this year, so perhaps they reacted to that comment. If so, they did so quickly. There isn't much in the area for dining, but that's not their fault and the City of Industry and Azusa are close by with better choices for a short drive.So one final comment. I came in the room tonite - again, my third and last night here. I found 2 bottles of complementary water, a roll of "lifesavers" candy and a nice note from Maria saying thanks for my patience. I feel that I should have given HER the "lifesavers" as that in essence is what she did for me. Thanks, Maria.More</t>
   </si>
   <si>
+    <t>barne125</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r156908180-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -635,6 +710,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>rich_cardona</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r149452315-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -653,6 +731,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>TheRefreshments</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r140344726-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -674,6 +755,9 @@
     <t>I travel to work in the West Covina schools several times a year.  I have stayed at this hotel for the past 3 years and have always found it very clean, very comfortable, and quite safe.  Staff is friendly and helpful.  I wish the rooms weren't quite so expensive, but they are exceptionally clean and SMOKE FREE!I'd like to offer a tip for people who like to swim or work out.  Although it is a bit of a drive, there is an awesome facility fairly close to this hotel. The San Dimas Swim &amp; Racquet Club is like your own mini health club! They offer walk-in rates for Lap Swimming, Aerobics, Racquetball, and Weight Room. There is also a steam and sauna which really helps after a long day. Oh, and their are lockers, showers, etc. that are nice and clean. It is located at 990 W. Covina Blvd. San Dimas, CA 91773More</t>
   </si>
   <si>
+    <t>ElGuapo49</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r73836546-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -690,6 +774,9 @@
   </si>
   <si>
     <t>August 2010</t>
+  </si>
+  <si>
+    <t>KYFarmer</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r61788619-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
@@ -1215,43 +1302,47 @@
       <c r="A2" t="n">
         <v>60446</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>709</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1265,50 +1356,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>60446</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>131444</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1328,50 +1423,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>60446</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>131445</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1385,50 +1484,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>60446</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>131446</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1448,50 +1551,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>60446</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>131447</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -1509,50 +1616,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>60446</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>3615</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1566,50 +1677,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>60446</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>131448</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1627,50 +1742,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>60446</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>131449</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -1690,50 +1809,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>60446</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>131450</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1747,50 +1870,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>60446</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>131451</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -1810,50 +1937,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>60446</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>131452</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -1873,50 +2004,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>60446</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>131453</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -1936,50 +2071,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>60446</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>65260</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="J14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="K14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="L14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -1999,50 +2138,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>60446</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="O15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2056,50 +2199,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>60446</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>152</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="J16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2113,50 +2260,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>60446</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>131454</v>
+      </c>
+      <c r="C17" t="s">
+        <v>159</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="K17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2170,41 +2321,45 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>60446</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>131455</v>
+      </c>
+      <c r="C18" t="s">
+        <v>166</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="J18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="K18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="L18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
@@ -2233,50 +2388,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>60446</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>131456</v>
+      </c>
+      <c r="C19" t="s">
+        <v>172</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="J19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="K19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="L19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="O19" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -2296,50 +2455,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>60446</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>18567</v>
+      </c>
+      <c r="C20" t="s">
+        <v>179</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="J20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="K20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="L20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="O20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2359,50 +2522,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>60446</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>131457</v>
+      </c>
+      <c r="C21" t="s">
+        <v>186</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="J21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="K21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="L21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="O21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -2422,50 +2589,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>60446</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>28600</v>
+      </c>
+      <c r="C22" t="s">
+        <v>194</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="J22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="K22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="L22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2485,50 +2656,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>60446</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>131458</v>
+      </c>
+      <c r="C23" t="s">
+        <v>202</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="J23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="K23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="O23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -2548,50 +2723,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>60446</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>131459</v>
+      </c>
+      <c r="C24" t="s">
+        <v>209</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="J24" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="K24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="L24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="O24" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -2615,50 +2794,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>60446</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>131460</v>
+      </c>
+      <c r="C25" t="s">
+        <v>216</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="J25" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="K25" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="O25" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -2682,50 +2865,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>60446</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>131461</v>
+      </c>
+      <c r="C26" t="s">
+        <v>223</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="J26" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="K26" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="O26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -2749,50 +2936,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>60446</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>131462</v>
+      </c>
+      <c r="C27" t="s">
+        <v>230</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="J27" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="K27" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="L27" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -2816,50 +3007,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>60446</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>131463</v>
+      </c>
+      <c r="C28" t="s">
+        <v>237</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="J28" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="K28" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="L28" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="O28" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -2883,50 +3078,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>60446</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>131464</v>
+      </c>
+      <c r="C29" t="s">
+        <v>245</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="J29" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="K29" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="L29" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="O29" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -2950,50 +3149,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>60446</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>131465</v>
+      </c>
+      <c r="C30" t="s">
+        <v>252</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="J30" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="K30" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="L30" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="O30" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3017,7 +3220,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_134.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_134.xlsx
@@ -1364,7 +1364,7 @@
         <v>60446</v>
       </c>
       <c r="B3" t="n">
-        <v>131444</v>
+        <v>162208</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -1431,7 +1431,7 @@
         <v>60446</v>
       </c>
       <c r="B4" t="n">
-        <v>131445</v>
+        <v>162209</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
@@ -1492,7 +1492,7 @@
         <v>60446</v>
       </c>
       <c r="B5" t="n">
-        <v>131446</v>
+        <v>162210</v>
       </c>
       <c r="C5" t="s">
         <v>73</v>
@@ -1559,7 +1559,7 @@
         <v>60446</v>
       </c>
       <c r="B6" t="n">
-        <v>131447</v>
+        <v>162211</v>
       </c>
       <c r="C6" t="s">
         <v>81</v>
@@ -1685,7 +1685,7 @@
         <v>60446</v>
       </c>
       <c r="B8" t="n">
-        <v>131448</v>
+        <v>162212</v>
       </c>
       <c r="C8" t="s">
         <v>94</v>
@@ -1750,7 +1750,7 @@
         <v>60446</v>
       </c>
       <c r="B9" t="n">
-        <v>131449</v>
+        <v>162213</v>
       </c>
       <c r="C9" t="s">
         <v>101</v>
@@ -1817,7 +1817,7 @@
         <v>60446</v>
       </c>
       <c r="B10" t="n">
-        <v>131450</v>
+        <v>162214</v>
       </c>
       <c r="C10" t="s">
         <v>110</v>
@@ -1878,7 +1878,7 @@
         <v>60446</v>
       </c>
       <c r="B11" t="n">
-        <v>131451</v>
+        <v>162215</v>
       </c>
       <c r="C11" t="s">
         <v>116</v>
@@ -1945,7 +1945,7 @@
         <v>60446</v>
       </c>
       <c r="B12" t="n">
-        <v>131452</v>
+        <v>162216</v>
       </c>
       <c r="C12" t="s">
         <v>123</v>
@@ -2012,7 +2012,7 @@
         <v>60446</v>
       </c>
       <c r="B13" t="n">
-        <v>131453</v>
+        <v>162217</v>
       </c>
       <c r="C13" t="s">
         <v>130</v>
@@ -2268,7 +2268,7 @@
         <v>60446</v>
       </c>
       <c r="B17" t="n">
-        <v>131454</v>
+        <v>162218</v>
       </c>
       <c r="C17" t="s">
         <v>159</v>
@@ -2329,7 +2329,7 @@
         <v>60446</v>
       </c>
       <c r="B18" t="n">
-        <v>131455</v>
+        <v>162219</v>
       </c>
       <c r="C18" t="s">
         <v>166</v>
@@ -2396,7 +2396,7 @@
         <v>60446</v>
       </c>
       <c r="B19" t="n">
-        <v>131456</v>
+        <v>162220</v>
       </c>
       <c r="C19" t="s">
         <v>172</v>
@@ -2530,7 +2530,7 @@
         <v>60446</v>
       </c>
       <c r="B21" t="n">
-        <v>131457</v>
+        <v>162221</v>
       </c>
       <c r="C21" t="s">
         <v>186</v>
@@ -2664,7 +2664,7 @@
         <v>60446</v>
       </c>
       <c r="B23" t="n">
-        <v>131458</v>
+        <v>162222</v>
       </c>
       <c r="C23" t="s">
         <v>202</v>
@@ -2731,7 +2731,7 @@
         <v>60446</v>
       </c>
       <c r="B24" t="n">
-        <v>131459</v>
+        <v>162223</v>
       </c>
       <c r="C24" t="s">
         <v>209</v>
@@ -2802,7 +2802,7 @@
         <v>60446</v>
       </c>
       <c r="B25" t="n">
-        <v>131460</v>
+        <v>162224</v>
       </c>
       <c r="C25" t="s">
         <v>216</v>
@@ -2873,7 +2873,7 @@
         <v>60446</v>
       </c>
       <c r="B26" t="n">
-        <v>131461</v>
+        <v>162225</v>
       </c>
       <c r="C26" t="s">
         <v>223</v>
@@ -2944,7 +2944,7 @@
         <v>60446</v>
       </c>
       <c r="B27" t="n">
-        <v>131462</v>
+        <v>162226</v>
       </c>
       <c r="C27" t="s">
         <v>230</v>
@@ -3015,7 +3015,7 @@
         <v>60446</v>
       </c>
       <c r="B28" t="n">
-        <v>131463</v>
+        <v>162227</v>
       </c>
       <c r="C28" t="s">
         <v>237</v>
@@ -3086,7 +3086,7 @@
         <v>60446</v>
       </c>
       <c r="B29" t="n">
-        <v>131464</v>
+        <v>162228</v>
       </c>
       <c r="C29" t="s">
         <v>245</v>
@@ -3157,7 +3157,7 @@
         <v>60446</v>
       </c>
       <c r="B30" t="n">
-        <v>131465</v>
+        <v>162229</v>
       </c>
       <c r="C30" t="s">
         <v>252</v>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_134.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_134.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="365">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,99 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>David P</t>
-  </si>
-  <si>
-    <t>06/29/2018</t>
+    <t>09/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r604699017-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>32583</t>
+  </si>
+  <si>
+    <t>1657233</t>
+  </si>
+  <si>
+    <t>604699017</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel for smaller budget.</t>
+  </si>
+  <si>
+    <t>W stayed overnight before going back to Las Vegas.The front desk people are nice. Angelina at the front desk set a high bar that the others we encountered did not match. In a lower mid class part of town. Still felt safe. Hotel is clean, just outdated. Room is good size. Bathroom was okay. Strange placement of TV...in between sofa and bed. But neither spot offered good viewing. fridge and microwave. Nice closet, but no drawers for clothing. Attention to detail was lacking. WiFi can be suspect, but was okay. Very small property. Parking was not an issue. Road noise was evident. Our room was upstairs on the back. front door did not fit well, which caused noise to enter from the hallway. Didn't eat breakfast so I can't comment on that. Do I recommend ? Personally, we will never stay there again. For a one night, late check in, it is okay.  For you, depends on your budget.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>W stayed overnight before going back to Las Vegas.The front desk people are nice. Angelina at the front desk set a high bar that the others we encountered did not match. In a lower mid class part of town. Still felt safe. Hotel is clean, just outdated. Room is good size. Bathroom was okay. Strange placement of TV...in between sofa and bed. But neither spot offered good viewing. fridge and microwave. Nice closet, but no drawers for clothing. Attention to detail was lacking. WiFi can be suspect, but was okay. Very small property. Parking was not an issue. Road noise was evident. Our room was upstairs on the back. front door did not fit well, which caused noise to enter from the hallway. Didn't eat breakfast so I can't comment on that. Do I recommend ? Personally, we will never stay there again. For a one night, late check in, it is okay.  For you, depends on your budget.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r596148225-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>596148225</t>
+  </si>
+  <si>
+    <t>07/14/2018</t>
+  </si>
+  <si>
+    <t>Comfortable Stay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For a quick overnight stay en route to our next vacation destination, this Comfort Inn didn't disappoint!  The front desk attendant, Angelina, was very kind and welcoming.  Our room was comfortable and clean, and breakfast the next morning was hot and tasty.  I would not hesitate to stay here again! </t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r580946878-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>580946878</t>
+  </si>
+  <si>
+    <t>05/17/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vacation in Los Angeles, California </t>
+  </si>
+  <si>
+    <t>Our stay at the Comfort Suites La Puente in California was great. The rooms were clean, comfortable and the free breakfast and WiFi were an added bonus. Front desk clerks were nice and friendly. When we arrived to check in a homeless person entered the lobby and an upset guest with an issue were both quickly addressed with respect to them and taken care of. Great customer service by the staff. We were very impressed. There’s a mall within walking distance from the hotel which has a CVS, Big Lots and other stores, nice to get snacks and shop for clothing or other things. Easy access to freeway. Will definitely stay at this hotel again when visiting California. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Our stay at the Comfort Suites La Puente in California was great. The rooms were clean, comfortable and the free breakfast and WiFi were an added bonus. Front desk clerks were nice and friendly. When we arrived to check in a homeless person entered the lobby and an upset guest with an issue were both quickly addressed with respect to them and taken care of. Great customer service by the staff. We were very impressed. There’s a mall within walking distance from the hotel which has a CVS, Big Lots and other stores, nice to get snacks and shop for clothing or other things. Easy access to freeway. Will definitely stay at this hotel again when visiting California. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r577694830-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>577694830</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>Worth it! The positive reviews here are the truth.</t>
+  </si>
+  <si>
+    <t>I stayed here for a week and it really felt like home. The friendly hello and welcome from the staff, to the helpful room attendants, and of course the manager Maria...she is awesome. I really enjoyed the cleanliness of the facility, my room, and of course the complimentary breakfast. I highly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r576542525-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
-    <t>32583</t>
-  </si>
-  <si>
-    <t>1657233</t>
-  </si>
-  <si>
     <t>576542525</t>
   </si>
   <si>
@@ -177,15 +255,9 @@
     <t>It's one of the top hotels in la puente. It's a small facility but well kept. The room was nice and the bed was comfy. The ac worked perfectly. Would be nicer if they had a bigger tv in the room. Staff was friendly and are doing a good job.</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>JetLug</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r564056090-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -204,15 +276,9 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>The suite was very nice: modern, clean, and spacious for our needs. It was more upscale than other Comfort brands that we've visited. The location is excellent for an LA trip with good access to the major highways and within walking distance from shopping and food. Even though we were on the "quieter" parking lot side, the amount of traffic was still enough that you could hear cars regularly. That wasn't so much of an issue when it came to sleeping. One night, however, there was a very loud house party very close by that played music until the early morning. The breakfast was average with limited selection and ok quality. The gym was horrible as it is very cramped and the weight lifting (multi-use pulley system) machine wasn't working. Parking was adequate but I can see it overfilling during the summer. Overall, would recommend and return.More</t>
   </si>
   <si>
-    <t>tinahobson</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r563054297-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -237,7 +303,40 @@
     <t>We stayed one night at this hotel on 1/17/18 and found a bedbug in our room. We immediately took a picture of it and showed the front desk attendant who took our number down and told us that his manager would call us the next day. After leaving the front desk we stopped by the breakfast area, I went to grab my boyfriend an English muffin, and was disgusted when I saw that the muffin was covered in mold. I wanted to inform the breakfast attendant as I had seen her walking around but when I asked for her at the front desk she was nowhere to be found. I then informed the same desk attendant about the mold and he nonchalantly replied with a simple “ok”. As for the bedbug issue, we never got a phone call from the manager as promised so I called the hotel a few days later. We still had absolutely NO luck getting a hold of the manager, almost everyone we talked to spoke terrible English and I had a hard time understanding what they were saying. The manager was always “unavailable” and apparently there was no other person available to do a simple refund. After about two weeks we were finally able to talk to her and she told us that the refund had been issued. However when we checked our bank statement a week later, she had CHARGED us for an extra...We stayed one night at this hotel on 1/17/18 and found a bedbug in our room. We immediately took a picture of it and showed the front desk attendant who took our number down and told us that his manager would call us the next day. After leaving the front desk we stopped by the breakfast area, I went to grab my boyfriend an English muffin, and was disgusted when I saw that the muffin was covered in mold. I wanted to inform the breakfast attendant as I had seen her walking around but when I asked for her at the front desk she was nowhere to be found. I then informed the same desk attendant about the mold and he nonchalantly replied with a simple “ok”. As for the bedbug issue, we never got a phone call from the manager as promised so I called the hotel a few days later. We still had absolutely NO luck getting a hold of the manager, almost everyone we talked to spoke terrible English and I had a hard time understanding what they were saying. The manager was always “unavailable” and apparently there was no other person available to do a simple refund. After about two weeks we were finally able to talk to her and she told us that the refund had been issued. However when we checked our bank statement a week later, she had CHARGED us for an extra night rather than refunding it! We then had to go through the misery of trying to get a hold of her again. It is now the end of February and we have still not received our full refund. I called back tonight to try to figure it out ONCE AGAIN and spoke to a Maria Mendoza who was incredibly rude and immediately told me that the bed bug claim was “not true”- without even acknowledging our other complaint about the moldy English muffins. She talked over me numerous times and claimed that she knew all about our issue as if we were a nuisance to her. She was incredibly unprofessional, especially when she told me that it was OUR responsibility to call the credit card company even after another employee told me that it was an issue on their end. Because of the unprofessional attitudes and awful customer service, I will never stay at this hotel or a Choice Hotel again as it is a food safety hazard and a complete nightmare to contact any type of helpful employee. We are more than a month in this process and still have not received our full refund. STAY AWAY!More</t>
   </si>
   <si>
-    <t>wayneusd</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r552970940-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>552970940</t>
+  </si>
+  <si>
+    <t>01/10/2018</t>
+  </si>
+  <si>
+    <t>Comfort Suites on New Years Eve</t>
+  </si>
+  <si>
+    <t>The hotel was easy to access from the highways, has a good central location for Los Angeles, has good parking, is a good value for the money, and was very clean.  There was some noise from the fireworks for New Year's Eve, but it was not bad.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r546267797-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>546267797</t>
+  </si>
+  <si>
+    <t>12/09/2017</t>
+  </si>
+  <si>
+    <t>Excellent staff and service!!!!</t>
+  </si>
+  <si>
+    <t>If you are in the area, I truly recommend staying here!!!Maria and her staff are excellent! They will do everything they can to ensure your stay is excellent and they truly do!The rooms are cleanHousekeeping is very friendlyExcellent for families with kidsThey do not have a pool or hottubePerfect for business travelThey offer hot and cold options for breakfastThey have a washer and dryer if you are traveling and need to do laundryThey have snack options if you need a quick snack Very soft and comfortable beds!Thank you to everyone here for allowing my team to stay and thank you for making sure we were taken care of!!!!</t>
+  </si>
+  <si>
+    <t>June 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r528122976-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
@@ -261,9 +360,6 @@
     <t>This was a nice place to stay.  The hotel staff was friendly, the rooms were clean and the breakfast was tasty.  We stayed here 2 times in the last month.  Both times we were very happy with our stay.  The room was good sized and the bed was comfortable.  The room was clean as was the bathroom.  The only thing I wished is that they had more USB ports for charging electronics, but they did have plenty of sockets for us to plug into and charge using our own USB chargers.  Breakfast was good all 3 mornings we were there.  One morning we even had chicken and waffles.  Still it is mostly a carbohydrate's dream, but over all it was good.  The rooms come with free wifi, there is plenty of off street parking and there is even a couple of spots for motorcycles.More</t>
   </si>
   <si>
-    <t>ZimplyZuperb</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r512428439-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -282,9 +378,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t>Nina T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r500531670-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -300,7 +393,43 @@
     <t>The room is rather old and mildly dirty. The carpet is definitely dirty. The price is also little high for $166./night. However, customer service was great! No perks for being a diamond level of Choice Hotel</t>
   </si>
   <si>
-    <t>Vivien H</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r477602184-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>477602184</t>
+  </si>
+  <si>
+    <t>04/20/2017</t>
+  </si>
+  <si>
+    <t>Amazing front desk staff, great rooms, nice relaxing stop for our group</t>
+  </si>
+  <si>
+    <t>We had a group of 19 people coming back from Tijuana building houses from Amor Ministries.  Kenny was tremendous at checkin.  We were able to get a sixth room when there was a cancellation online right at that same time.  He went beyond expectations in making sure we felt at home and comfortable.  We greatly appreciated the size of the rooms (3 beds each room!) and the attention to details.  Highly recommended.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r474685445-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>474685445</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice &amp; cozy </t>
+  </si>
+  <si>
+    <t>My husband and I decided to stay at Comfort Suites for 3 nights. And I liked it! First, our king size bed was warm and firm. Pillows were soft, cuddly and smells good. Towels were thick and fresh and abundant. There were 4 big towels and six medium size and several face towels. Love it! Breakfast was ok, nothing special. But a variety of coffee was available 24 hours at the front desk. I gave this hotel 4 stars because I had a hard time locking our door from inside and outside. I slammed it several times and it won't lock. The receptionist had to come up to lock it. Safety is my primary concern so I told them to have it fixed. Other than this issue, Comfort Suites is a nice place to stay, very affordable, and you'll get your quality sleep with their bedMoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I decided to stay at Comfort Suites for 3 nights. And I liked it! First, our king size bed was warm and firm. Pillows were soft, cuddly and smells good. Towels were thick and fresh and abundant. There were 4 big towels and six medium size and several face towels. Love it! Breakfast was ok, nothing special. But a variety of coffee was available 24 hours at the front desk. I gave this hotel 4 stars because I had a hard time locking our door from inside and outside. I slammed it several times and it won't lock. The receptionist had to come up to lock it. Safety is my primary concern so I told them to have it fixed. Other than this issue, Comfort Suites is a nice place to stay, very affordable, and you'll get your quality sleep with their bedMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r443907003-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
@@ -321,9 +450,6 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t>Vangie0712</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r433116080-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -342,15 +468,9 @@
     <t>October 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>We have an event to go to at Pacific Palms in the City of Industry, unfortunately the rooms were outrageously expensive. Luckily, we found this hotel nearby, a quick uber ride to and from. The place was comfortably located in a quiet intersection of Glendora and Hacienda. Surprisingly we got their "Platinum Suite" 2 King beds with living space, complete with a microwave, small refrigerator and coffee maker. The room was big and clean. Even though it was located in busy intersection, the rooms were quiet and very comfortable. All the staff we encountered were very professional and friendly, they really made our stay very comfortable. As a coffee drinker, I loved the idea of coffee maker in the room, however it was not necessary because they have coffee available in the lobby, always fresh. They even served breakfast from 7am to 10am, including fresh waffle maker. Shout out to Almita Ramos for booking our reservation. Overall, I rate this place "10" and all my friends agreed that between Pacific Palms or Comfort Suites, our choice is Comfort Suites. Thank you, we will return for sure.More</t>
   </si>
   <si>
-    <t>Skar72</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r427756087-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -366,7 +486,46 @@
     <t>I live in the area. I got the bad news my house has termites &amp; I had to be out for 2nights 3days. I thought I guess I will try that new hotel. Boy am I pleasantly surprised! Nice size room with little living room area. Small fridge &amp; microwave. Peaceful enough. Great full free breakfast and unlimited coffee! Oh and coming home in the evenings to fresh baked really good chocolate chip cookies helped! Comfortable beds. Comfy pillows. Clean bathrooms! Now I know where to send all my out of town guests!</t>
   </si>
   <si>
-    <t>Darchelle M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r392360469-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>392360469</t>
+  </si>
+  <si>
+    <t>07/13/2016</t>
+  </si>
+  <si>
+    <t>Well above par</t>
+  </si>
+  <si>
+    <t>Spent 2 mid-week nights in 2 different rooms (king size bed then 2 twins) because I wasn't sure I had to stay second night and initially checked out. For some reason, the 2nd room was a little more beaten up than the first one with some furniture scratches and a little frayed wallpaper; the first room was immaculate. Location is 20-30 minutes from downtown LA, but close enough to, and in between, US60 and I10 to make it reasonable travel distance. The free parking was in back and was adequate but don't show up in a Class A RV. Both mini suites were roomy enough for a couple, but would be cozy for more than a kid or two. Rooms have good sized closet, nicely furnished (arm chair, hide a bed sofa, and small coffee table), clean, lots of electrical outlets, and with a few nice touches like wall and bathroom light motion sensors, ergonomic desk chair, and pull out table under desk along with microwave, mini fridge and coffee maker. The TV is flat screen but in 36 " class so a little small if you're used to very large screens. Hair dryer in bathroom, sufficient hot water, and reasonably thick (but not plush) towels.  Free wifi ok speed but don't plan on binge watching Netflix. AC located under window but wall thermostat controlled; fan is reasonably quiet. The free breakfast buffet includes 2 types of breakfast sandwiches, scrambled...Spent 2 mid-week nights in 2 different rooms (king size bed then 2 twins) because I wasn't sure I had to stay second night and initially checked out. For some reason, the 2nd room was a little more beaten up than the first one with some furniture scratches and a little frayed wallpaper; the first room was immaculate. Location is 20-30 minutes from downtown LA, but close enough to, and in between, US60 and I10 to make it reasonable travel distance. The free parking was in back and was adequate but don't show up in a Class A RV. Both mini suites were roomy enough for a couple, but would be cozy for more than a kid or two. Rooms have good sized closet, nicely furnished (arm chair, hide a bed sofa, and small coffee table), clean, lots of electrical outlets, and with a few nice touches like wall and bathroom light motion sensors, ergonomic desk chair, and pull out table under desk along with microwave, mini fridge and coffee maker. The TV is flat screen but in 36 " class so a little small if you're used to very large screens. Hair dryer in bathroom, sufficient hot water, and reasonably thick (but not plush) towels.  Free wifi ok speed but don't plan on binge watching Netflix. AC located under window but wall thermostat controlled; fan is reasonably quiet. The free breakfast buffet includes 2 types of breakfast sandwiches, scrambled eggs, cereals, some fruit, coffee, juice, muffins, and the ever present do it yourself waffles. On site small gym but no pool. Service was good and had no problem reserving a 2nd night. Neighborhood seemed safe but suburban in nature so you might have to drive a little if you want some dining or entertainment since no restaurant on diet. Overall, excellent value with the Internet rates great for mid-range motel in LA metro area. I would definitely return. Building is right on somewhat noisy Glendora Ave and pedestrians are only a few feet away from 1st floor room street side windows. For most quiet, ask for 2nd floor room in back away from the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Spent 2 mid-week nights in 2 different rooms (king size bed then 2 twins) because I wasn't sure I had to stay second night and initially checked out. For some reason, the 2nd room was a little more beaten up than the first one with some furniture scratches and a little frayed wallpaper; the first room was immaculate. Location is 20-30 minutes from downtown LA, but close enough to, and in between, US60 and I10 to make it reasonable travel distance. The free parking was in back and was adequate but don't show up in a Class A RV. Both mini suites were roomy enough for a couple, but would be cozy for more than a kid or two. Rooms have good sized closet, nicely furnished (arm chair, hide a bed sofa, and small coffee table), clean, lots of electrical outlets, and with a few nice touches like wall and bathroom light motion sensors, ergonomic desk chair, and pull out table under desk along with microwave, mini fridge and coffee maker. The TV is flat screen but in 36 " class so a little small if you're used to very large screens. Hair dryer in bathroom, sufficient hot water, and reasonably thick (but not plush) towels.  Free wifi ok speed but don't plan on binge watching Netflix. AC located under window but wall thermostat controlled; fan is reasonably quiet. The free breakfast buffet includes 2 types of breakfast sandwiches, scrambled...Spent 2 mid-week nights in 2 different rooms (king size bed then 2 twins) because I wasn't sure I had to stay second night and initially checked out. For some reason, the 2nd room was a little more beaten up than the first one with some furniture scratches and a little frayed wallpaper; the first room was immaculate. Location is 20-30 minutes from downtown LA, but close enough to, and in between, US60 and I10 to make it reasonable travel distance. The free parking was in back and was adequate but don't show up in a Class A RV. Both mini suites were roomy enough for a couple, but would be cozy for more than a kid or two. Rooms have good sized closet, nicely furnished (arm chair, hide a bed sofa, and small coffee table), clean, lots of electrical outlets, and with a few nice touches like wall and bathroom light motion sensors, ergonomic desk chair, and pull out table under desk along with microwave, mini fridge and coffee maker. The TV is flat screen but in 36 " class so a little small if you're used to very large screens. Hair dryer in bathroom, sufficient hot water, and reasonably thick (but not plush) towels.  Free wifi ok speed but don't plan on binge watching Netflix. AC located under window but wall thermostat controlled; fan is reasonably quiet. The free breakfast buffet includes 2 types of breakfast sandwiches, scrambled eggs, cereals, some fruit, coffee, juice, muffins, and the ever present do it yourself waffles. On site small gym but no pool. Service was good and had no problem reserving a 2nd night. Neighborhood seemed safe but suburban in nature so you might have to drive a little if you want some dining or entertainment since no restaurant on diet. Overall, excellent value with the Internet rates great for mid-range motel in LA metro area. I would definitely return. Building is right on somewhat noisy Glendora Ave and pedestrians are only a few feet away from 1st floor room street side windows. For most quiet, ask for 2nd floor room in back away from the street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r379529353-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>379529353</t>
+  </si>
+  <si>
+    <t>06/03/2016</t>
+  </si>
+  <si>
+    <t>In the heart of La Puente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect place to stay while traveling. Very clean well managed and close to many points of interest in Los Angeles county. Breakfast is prepared every morning. Staff is very hospitable. Management always greets and attends to customers with a welcoming smile. </t>
+  </si>
+  <si>
+    <t>June 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r373845170-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
@@ -387,9 +546,6 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t>Stian B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r371178830-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -408,9 +564,6 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t>bevvbobb</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r369390396-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -426,7 +579,40 @@
     <t>Stayed at this hotel one night as we were attending a family outing in nearby Hacienda Heights. Quiet. Very comfortable king bed. Nice layout. WiFi worked very well .Only a 2 floor hotel but was very convenient for us. Looked at reviews before booking and it had consistent good ratings. Had the breakfast buffet and it was pretty good and being able to cook your own waffles made it nice. Quite a few families were staying there also and seemed to be enjoying themselves. The staff was friendly and helpful.</t>
   </si>
   <si>
-    <t>Sandradot</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r344878649-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>344878649</t>
+  </si>
+  <si>
+    <t>02/03/2016</t>
+  </si>
+  <si>
+    <t>Great for the job</t>
+  </si>
+  <si>
+    <t>I stayed with friends for 2 nights before flying home to the UK. The hotel was comfortable, very clean and the staff very helpful. Great to have a fridge, microwave and tea/coffee in the room. The breakfast was more than adequate. No shower gel, just soap and shampoo/conditioner..... Overall a good place to stay</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r314941587-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>314941587</t>
+  </si>
+  <si>
+    <t>09/29/2015</t>
+  </si>
+  <si>
+    <t>Quick noghy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This place was clean, great amenities, and customer service. However, the TV did not work for some reason and I was too lazy to call for help. I loved that there was a refrigerator and a microwave. The bathroom was clean, which is a big plus. The a/c worker great especially being in LA. The continental breakfast was 3 star. The waffles we're terrible. But everything else was okay. Overall I had a great night </t>
+  </si>
+  <si>
+    <t>September 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r290586583-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
@@ -450,9 +636,6 @@
     <t>We had a family function nearby and booked this because there are not a lot of hotels nearby.  The place was modern, clean and staff was really accommodating.  Check in was a breeze, the parking was well lit and we felt safe leaving our Lexus there.  Our room was spacious and clean.  There was a nice note from Alma and a bowl of fruit and chocolates.  They recognized that we were Gold members, which was a surprise as that has not happened at other Comfort Suites.  The wifi was speedy and I felt safe driving to the nearby Hawaiian restaurant and grocery store.  The second floor hallway was arctic but the temperature in the room was as expected and the beds were very comfortable.  The shower head was a nice surprise but the lighting in the bathroom was dismal.  Overall, I would highly recommend this hotel and I thought it was good value.More</t>
   </si>
   <si>
-    <t>Michael S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r280335486-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -474,9 +657,6 @@
     <t>Stayed here for business for three nights. Check-in went well - the attendant was kind and helpful. The room had an overpowering room freshener smell to which I had to adjust. Climate control worked well and I liked that the fan had an "on" setting. The room seemed clean enough, but there were some mildew stains in the caulk in the shower. The noise level in the room was bad considering the herd of elephants staying above us. Also, if I were to stay here again I'd ask for a room on the back side of the building since the street noise is heavy on the front side. Beds were comfortable for the most part, as were the pillows. Breakfast was typical fare but seemed fresh. Selection was pretty adequate. It was also ready well before the posted time. Overall the staff was friendly and helpful. More</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r279607755-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -495,7 +675,40 @@
     <t>My husband and I stayed at this hotel 5/14/15 thru 5/17/15 for the USC graduation. We chose this hotel because of the reviews. When we left for Las Vegas and arrived at our hotel I noted 2 pieces of clothing missing. I had worn the outfit to my granddaughter's graduation and had hung it up in the closet at the Comfort Suites in La Puente, CA on Glendora Avenue. My husband immediately called Comfort Suites and reported the missing items. He was told to call back the next business day, which he did. The next day my husband told the receptionist off the missing items (dark blue Susan Graver top and white pants). He gave them our cell phone number where we could be reached and was told that someone would return our call. No call ever came. He called back the next day and was told the same thing.. Today they would look into it and call us back. The call never came. We left LAX  on the on the 21st of June heading home. I'm still upset over the loss of my outfit and WE'LL NEVER STAY AT THAT COMFORT SUITE EVER AGAIN.More</t>
   </si>
   <si>
-    <t>Daryl H</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r275171032-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>275171032</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>Friendly, clean &amp; modern</t>
+  </si>
+  <si>
+    <t>This Comfort Suites was extremely clean and well kept. The entire staff was very friendly and always spoke to us as we passed them. Nice continental breakfast and convenient parking. Oh and the beds, very comfortable and slept  better than I have in a long time.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r261782755-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>261782755</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>Nice &amp; Comfortable</t>
+  </si>
+  <si>
+    <t>All  you need , breakfast always ready and plenty of choices to pick from, clean room , friendly employees. Good parking .comfortable beds, good location close to stores and eating places  Well recommend to others.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r256092157-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
@@ -516,9 +729,6 @@
     <t>February 2015</t>
   </si>
   <si>
-    <t>Dark_Choc-a-holic</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r252093593-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -534,9 +744,6 @@
     <t>Husband and I came to La Puente for a quick weekend visit. Chose location because we would be stopping at A Mi Havienda for a concert. Rooms were clean, bed was comfy, staff were very nice, continental breakfast was decent &amp; price was more than reasonable. We plan to return.</t>
   </si>
   <si>
-    <t>Beachplum3</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r247869513-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -555,7 +762,37 @@
     <t>December 2014</t>
   </si>
   <si>
-    <t>Jay W</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r245925755-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>245925755</t>
+  </si>
+  <si>
+    <t>12/26/2014</t>
+  </si>
+  <si>
+    <t>Every Silver Lining has a Cloud</t>
+  </si>
+  <si>
+    <t>This is a great Hotel, with updated amenities, including multiple electrical outlets (9), on night stands and desk for all those electrical devices..  Nice complimentary Breakfast, easy parking, and near our family for Holiday visits.BUT, the Cloud on this Silver Lining.  Two problems which would be easy to fix.No. 1 - Lighting.  In spite of having 7 light fixtures (all turned on), the room was dim, due to the very dim bulbs in all the fixtures.  Most notably the Bathroom with only 2 sconces, the mirror and the shower were very dim.No. 2 - Upgraded Cable.  The sensor (the size of a dime), to change stations, was installed sideways to the line of sight (very small and difficult to change anything, except sound (which is on TV).  The cable service was very slow, taking time to load the channel guide each time you needed it.Solution, get bigger light bulbs, for reading, bathroom, etc.  Fix the sensor, or get another product, like satellite .MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a great Hotel, with updated amenities, including multiple electrical outlets (9), on night stands and desk for all those electrical devices..  Nice complimentary Breakfast, easy parking, and near our family for Holiday visits.BUT, the Cloud on this Silver Lining.  Two problems which would be easy to fix.No. 1 - Lighting.  In spite of having 7 light fixtures (all turned on), the room was dim, due to the very dim bulbs in all the fixtures.  Most notably the Bathroom with only 2 sconces, the mirror and the shower were very dim.No. 2 - Upgraded Cable.  The sensor (the size of a dime), to change stations, was installed sideways to the line of sight (very small and difficult to change anything, except sound (which is on TV).  The cable service was very slow, taking time to load the channel guide each time you needed it.Solution, get bigger light bulbs, for reading, bathroom, etc.  Fix the sensor, or get another product, like satellite .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r245842274-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>245842274</t>
+  </si>
+  <si>
+    <t>12/25/2014</t>
+  </si>
+  <si>
+    <t>Very satisfied!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are here to see LA. This hotel is not too far from LA. nice and clean. Breakfast included. On site laundry available. Strong wifi also great!  Free and safe parking. Nice people!   Reasonable sized rooms. Just didn't have 2 double beds. Had one queen and I sofa bed. That was the only downside. I'd come back again. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r237393644-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
@@ -576,9 +813,6 @@
     <t>December 2013</t>
   </si>
   <si>
-    <t>LoveMauitoomuch</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r235027683-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -597,12 +831,6 @@
     <t>October 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>Lawrence C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r230758271-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -624,7 +852,40 @@
     <t>The night before checking into this hotel we had stay in a Comfort suites hotel near Sea World in San Diego. It was a complete nightmare. This hotel was the complete . The staff was friendly, professional and we'll trained. The room was immaculate,  and the handicap room was actually an accesible room, not just a room with a grab bar in the restroom. The breakfast was great, there was a very good selection of TV channels. We actually enjoyed our 4 day stay here thanks to ownership that actually cares about the quality of their hotel. Well Done ! We hope to return in the next few months and we will certainly be making reservations with you again. It is a pleasure to experience such a well run hotel.More</t>
   </si>
   <si>
-    <t>Robertb75040</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r221145598-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>221145598</t>
+  </si>
+  <si>
+    <t>08/11/2014</t>
+  </si>
+  <si>
+    <t>Can not ask for more</t>
+  </si>
+  <si>
+    <t>We made the reservation based on the reviews we read on tripadvisor.com and now we can attest they all were right. Everything about the hotel is great including building, rooms, breakfast and above all the staff. One staff member Maria was absolutely a model employee who helped us with every item we inquired about. Our stay was so good that we will defintely stay there whenever we go back.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r216280641-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>216280641</t>
+  </si>
+  <si>
+    <t>07/19/2014</t>
+  </si>
+  <si>
+    <t>Par Excellence!!</t>
+  </si>
+  <si>
+    <t>Everything is great! The room, breakfast buffet, gym - all were excellent. 24-hr flavored water and free cookies! Rooms were big, clean, and staff were very helpful and accomodating. Stayed here 4 nights and would definitely stay again.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r214207072-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
@@ -642,12 +903,6 @@
     <t>Small hotel that is very clean with nice pillow top bed.  Breakfast was typical but you are three blocks to landmark "Donut Hole" which has lots of choices.  Small workout room to work off the bear claws.</t>
   </si>
   <si>
-    <t>July 2014</t>
-  </si>
-  <si>
-    <t>uter</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r210654075-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -664,9 +919,6 @@
   </si>
   <si>
     <t>May 2014</t>
-  </si>
-  <si>
-    <t>JerryPPhoenix</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r204523967-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
@@ -689,7 +941,43 @@
 OK, so now about this place. It's a very pleasant business hotel with nice furnishings and a...Here on my last night of a 3 night business trip, ultimately very happy I chose this hotel over the one recommended by my company. The first night here, my TV didn't work and they couldn't fix it until the next day because maintenance had gone home for the day. When I came in on day 2, I went to the desk and asked about it, and they assured me it had been fixxed...well, it wasn't. I don't have a TV at home (a lifestyle choice) so I will admit that when I stay in a hotel, I enjoy watching some. Well, I went to the desk expecting to hear that no maintenance was available since it was once again, early evening. But this time, the Manager - a very professional and friendly lady named Maria - said if I didn't mind moving my room, she'd give me the only one left. The 2 room suite. I am alone on this trip, so I'm not even using the second room - but it was kind of her to accomodate me because in doing so I imagine she gave up some revenue. Naturally things still didn't go so well in the "move". Some of it was issues with the card "keys" and some of it my own stupidity, but ultimately I had my TV.OK, so now about this place. It's a very pleasant business hotel with nice furnishings and a VERY comfortable bed. I like a softer bed and this one was perfect. The room is spotless. There is a microwave, coffee maker, refrigerator, etc. The morning breakfast is typical hotel fare, but it's hot and fresh. They must have recently put in the universal weight machine that one reviewer wished was here back in March of this year, so perhaps they reacted to that comment. If so, they did so quickly. There isn't much in the area for dining, but that's not their fault and the City of Industry and Azusa are close by with better choices for a short drive.So one final comment. I came in the room tonite - again, my third and last night here. I found 2 bottles of complementary water, a roll of "lifesavers" candy and a nice note from Maria saying thanks for my patience. I feel that I should have given HER the "lifesavers" as that in essence is what she did for me. Thanks, Maria.More</t>
   </si>
   <si>
-    <t>barne125</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r196748701-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>196748701</t>
+  </si>
+  <si>
+    <t>03/09/2014</t>
+  </si>
+  <si>
+    <t>Loved it. The breakfast was delicious.</t>
+  </si>
+  <si>
+    <t>We recently stayed here for 1 night I would like to say how kind and helpful the staff  was very accommodating and pleasant. The room was spacious, clean, and comfortable. The rate was reasonable. The fitness center was well-equipped with cardio machines; however, a universal weight machine would've made it perfect. .We're in the middle of a stay and already I can say that this is a great stay for the money. It's quiet and very clean, the rooms are spacious with a microwave and refrigerator, and the breakfast is very delicious (eggs, bacon, waffles, etc.). We also appreciated that the A/C unit could be set by degrees and was relatively quiet. We would definitely stay here again, also because of the good location.We didn't use the swimming pool so can't comment on it bt i hope it would've been great too.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>We recently stayed here for 1 night I would like to say how kind and helpful the staff  was very accommodating and pleasant. The room was spacious, clean, and comfortable. The rate was reasonable. The fitness center was well-equipped with cardio machines; however, a universal weight machine would've made it perfect. .We're in the middle of a stay and already I can say that this is a great stay for the money. It's quiet and very clean, the rooms are spacious with a microwave and refrigerator, and the breakfast is very delicious (eggs, bacon, waffles, etc.). We also appreciated that the A/C unit could be set by degrees and was relatively quiet. We would definitely stay here again, also because of the good location.We didn't use the swimming pool so can't comment on it bt i hope it would've been great too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r157505171-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>157505171</t>
+  </si>
+  <si>
+    <t>04/12/2013</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>The room I had was a good size and very comfortable and clean.  It was a quick over nighter for me but I enjoyed my stay and the breakfast had plenty to choose from.  The location was perfect for a visit to a customer in the city of industry.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r156908180-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
@@ -707,12 +995,6 @@
     <t>Newer hotel in La Puente.  Rooms are very nice and spacious.  Rates are reasonable.  Hot breakfast from 6:30-9:30 am (eggs, sausage, toast, waffles, etc).  Rooms have work desk, flat screen plasmas.   Beds are very comfortable.  Some parking on the road out front for larger vehicles, but most parking is inside the walled off garage- seems safe. (10 ft height limit going in).  Stayed one night and called down to extend for another night- liked it so much.  Pretty easy off the 60 (Hacienda drive)Will stay again.  No problem.  Staff was very nice.</t>
   </si>
   <si>
-    <t>April 2013</t>
-  </si>
-  <si>
-    <t>rich_cardona</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r149452315-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -731,9 +1013,6 @@
     <t>December 2012</t>
   </si>
   <si>
-    <t>TheRefreshments</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r140344726-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
   </si>
   <si>
@@ -755,7 +1034,46 @@
     <t>I travel to work in the West Covina schools several times a year.  I have stayed at this hotel for the past 3 years and have always found it very clean, very comfortable, and quite safe.  Staff is friendly and helpful.  I wish the rooms weren't quite so expensive, but they are exceptionally clean and SMOKE FREE!I'd like to offer a tip for people who like to swim or work out.  Although it is a bit of a drive, there is an awesome facility fairly close to this hotel. The San Dimas Swim &amp; Racquet Club is like your own mini health club! They offer walk-in rates for Lap Swimming, Aerobics, Racquetball, and Weight Room. There is also a steam and sauna which really helps after a long day. Oh, and their are lockers, showers, etc. that are nice and clean. It is located at 990 W. Covina Blvd. San Dimas, CA 91773More</t>
   </si>
   <si>
-    <t>ElGuapo49</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r122590706-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>122590706</t>
+  </si>
+  <si>
+    <t>01/05/2012</t>
+  </si>
+  <si>
+    <t>Great hotel; modest price</t>
+  </si>
+  <si>
+    <t>This hotel is in an older neighborhood.  It is a newer building with great furnishings.  We stayed 1 night and it was modestly priced.  No pool, but a decent breakfast.  Surprisingly, the noise level from the street was minimal.  Our room was next to the lobby, and couldn't hear anything from there, either.  It is near a grocery store and not hard to find.  There was a small fridge and small microwave in the room.  The ice machine was empty, and they could not provide us any.  So, that is the only negative issue with this stay.  Parking did feel secure.  Definitely great for a 1 or 2 night trip.  Very friendly staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>This hotel is in an older neighborhood.  It is a newer building with great furnishings.  We stayed 1 night and it was modestly priced.  No pool, but a decent breakfast.  Surprisingly, the noise level from the street was minimal.  Our room was next to the lobby, and couldn't hear anything from there, either.  It is near a grocery store and not hard to find.  There was a small fridge and small microwave in the room.  The ice machine was empty, and they could not provide us any.  So, that is the only negative issue with this stay.  Parking did feel secure.  Definitely great for a 1 or 2 night trip.  Very friendly staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r118625284-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
+  </si>
+  <si>
+    <t>118625284</t>
+  </si>
+  <si>
+    <t>09/26/2011</t>
+  </si>
+  <si>
+    <t>Nice, small, and reasonably priced</t>
+  </si>
+  <si>
+    <t>Hotel was very nicely designed. High speed internet and a nice little complimentary breakfast included. Neighborhood seems old, but not the nicest looking. The rooms were clean, and nicely arranged and furnished with a HDTV, a sofa that can convert into a bed, microwave, and a mini fridge. Workers there are very friendly and will provide you with anything you might need even in late hours of the night. There's a laptop and printer in the lobby for hotel guests to use. There's a lot of restaurants surrounding the area so you don't have to worry about driving great distances for food. I would recommend this place for those who are looking for a nice place to stay at a reasonable price.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>Hotel was very nicely designed. High speed internet and a nice little complimentary breakfast included. Neighborhood seems old, but not the nicest looking. The rooms were clean, and nicely arranged and furnished with a HDTV, a sofa that can convert into a bed, microwave, and a mini fridge. Workers there are very friendly and will provide you with anything you might need even in late hours of the night. There's a laptop and printer in the lobby for hotel guests to use. There's a lot of restaurants surrounding the area so you don't have to worry about driving great distances for food. I would recommend this place for those who are looking for a nice place to stay at a reasonable price.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r73836546-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
@@ -774,9 +1092,6 @@
   </si>
   <si>
     <t>August 2010</t>
-  </si>
-  <si>
-    <t>KYFarmer</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32583-d1657233-r61788619-Comfort_Suites_Near_Industry_Hills_Expo_Center-La_Puente_California.html</t>
@@ -1302,175 +1617,163 @@
       <c r="A2" t="n">
         <v>60446</v>
       </c>
-      <c r="B2" t="n">
-        <v>709</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>60446</v>
       </c>
-      <c r="B3" t="n">
-        <v>162208</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>60</v>
       </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>4</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>60446</v>
       </c>
-      <c r="B4" t="n">
-        <v>162209</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>70</v>
-      </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1484,66 +1787,60 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>60446</v>
       </c>
-      <c r="B5" t="n">
-        <v>162210</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>73</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>79</v>
-      </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="n">
         <v>5</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1551,254 +1848,236 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>60446</v>
       </c>
-      <c r="B6" t="n">
-        <v>162211</v>
-      </c>
-      <c r="C6" t="s">
-        <v>81</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>60446</v>
       </c>
-      <c r="B7" t="n">
-        <v>3615</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
       <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>60446</v>
       </c>
-      <c r="B8" t="n">
-        <v>162212</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>4</v>
-      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>60446</v>
       </c>
-      <c r="B9" t="n">
-        <v>162213</v>
-      </c>
-      <c r="C9" t="s">
-        <v>101</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
       </c>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
         <v>5</v>
@@ -1809,124 +2088,122 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>60446</v>
       </c>
-      <c r="B10" t="n">
-        <v>162214</v>
-      </c>
-      <c r="C10" t="s">
-        <v>110</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>60446</v>
       </c>
-      <c r="B11" t="n">
-        <v>162215</v>
-      </c>
-      <c r="C11" t="s">
-        <v>116</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="O11" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
         <v>4</v>
       </c>
-      <c r="R11" t="n">
-        <v>4</v>
-      </c>
-      <c r="S11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
         <v>4</v>
@@ -1937,66 +2214,60 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>60446</v>
       </c>
-      <c r="B12" t="n">
-        <v>162216</v>
-      </c>
-      <c r="C12" t="s">
-        <v>123</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="O12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
-        <v>4</v>
-      </c>
-      <c r="R12" t="n">
         <v>3</v>
       </c>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2004,130 +2275,116 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>60446</v>
       </c>
-      <c r="B13" t="n">
-        <v>162217</v>
-      </c>
-      <c r="C13" t="s">
-        <v>130</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="O13" t="s">
-        <v>54</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>4</v>
-      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>4</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>60446</v>
       </c>
-      <c r="B14" t="n">
-        <v>65260</v>
-      </c>
-      <c r="C14" t="s">
-        <v>136</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="J14" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="K14" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="O14" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
         <v>5</v>
       </c>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
-      <c r="S14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
         <v>5</v>
@@ -2138,54 +2395,50 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>60446</v>
       </c>
-      <c r="B15" t="n">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>144</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="K15" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="O15" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2199,389 +2452,357 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>60446</v>
       </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>152</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="J16" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="K16" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>60446</v>
       </c>
-      <c r="B17" t="n">
-        <v>162218</v>
-      </c>
-      <c r="C17" t="s">
-        <v>159</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="J17" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="K17" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="L17" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="O17" t="s">
-        <v>62</v>
-      </c>
-      <c r="P17" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>60446</v>
       </c>
-      <c r="B18" t="n">
-        <v>162219</v>
-      </c>
-      <c r="C18" t="s">
-        <v>166</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="J18" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="K18" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="N18" t="s">
+        <v>149</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>60446</v>
       </c>
-      <c r="B19" t="n">
-        <v>162220</v>
-      </c>
-      <c r="C19" t="s">
-        <v>172</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="J19" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="K19" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="L19" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="O19" t="s">
-        <v>108</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>3</v>
-      </c>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>60446</v>
       </c>
-      <c r="B20" t="n">
-        <v>18567</v>
-      </c>
-      <c r="C20" t="s">
-        <v>179</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="J20" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="K20" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="L20" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="O20" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>3</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>60446</v>
       </c>
-      <c r="B21" t="n">
-        <v>162221</v>
-      </c>
-      <c r="C21" t="s">
-        <v>186</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="J21" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="K21" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="O21" t="s">
-        <v>193</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="n">
         <v>4</v>
       </c>
-      <c r="R21" t="s"/>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2589,66 +2810,62 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>60446</v>
       </c>
-      <c r="B22" t="n">
-        <v>28600</v>
-      </c>
-      <c r="C22" t="s">
-        <v>194</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="J22" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="K22" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="L22" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="O22" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
       <c r="R22" t="n">
-        <v>4</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2656,62 +2873,58 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>60446</v>
       </c>
-      <c r="B23" t="n">
-        <v>162222</v>
-      </c>
-      <c r="C23" t="s">
-        <v>202</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="J23" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="K23" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="L23" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="O23" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
-      <c r="R23" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
@@ -2723,212 +2936,176 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>60446</v>
       </c>
-      <c r="B24" t="n">
-        <v>162223</v>
-      </c>
-      <c r="C24" t="s">
-        <v>209</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="J24" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="K24" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="L24" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="O24" t="s">
-        <v>193</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>4</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>60446</v>
       </c>
-      <c r="B25" t="n">
-        <v>162224</v>
-      </c>
-      <c r="C25" t="s">
-        <v>216</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="J25" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="K25" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="L25" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="O25" t="s">
-        <v>71</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>3</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>60446</v>
       </c>
-      <c r="B26" t="n">
-        <v>162225</v>
-      </c>
-      <c r="C26" t="s">
-        <v>223</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="J26" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="K26" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="L26" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="O26" t="s">
-        <v>71</v>
-      </c>
-      <c r="P26" t="n">
-        <v>4</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R26" t="n">
-        <v>3</v>
-      </c>
-      <c r="S26" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2936,212 +3113,176 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>60446</v>
       </c>
-      <c r="B27" t="n">
-        <v>162226</v>
-      </c>
-      <c r="C27" t="s">
-        <v>230</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="J27" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="K27" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="L27" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="O27" t="s">
-        <v>62</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>4</v>
-      </c>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>60446</v>
       </c>
-      <c r="B28" t="n">
-        <v>162227</v>
-      </c>
-      <c r="C28" t="s">
-        <v>237</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="J28" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="K28" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="L28" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="O28" t="s">
-        <v>71</v>
-      </c>
-      <c r="P28" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>60446</v>
       </c>
-      <c r="B29" t="n">
-        <v>162228</v>
-      </c>
-      <c r="C29" t="s">
-        <v>245</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="J29" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="K29" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="L29" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="O29" t="s">
-        <v>71</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
       <c r="R29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3149,78 +3290,1474 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>60446</v>
       </c>
-      <c r="B30" t="n">
-        <v>162229</v>
-      </c>
-      <c r="C30" t="s">
-        <v>252</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="J30" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="K30" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="L30" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="O30" t="s">
-        <v>71</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
-      <c r="R30" t="n">
-        <v>4</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>4</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>231</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>232</v>
+      </c>
+      <c r="J31" t="s">
+        <v>233</v>
+      </c>
+      <c r="K31" t="s">
+        <v>234</v>
+      </c>
+      <c r="L31" t="s">
+        <v>235</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>236</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>237</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>238</v>
+      </c>
+      <c r="J32" t="s">
+        <v>239</v>
+      </c>
+      <c r="K32" t="s">
+        <v>240</v>
+      </c>
+      <c r="L32" t="s">
+        <v>241</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>242</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>243</v>
+      </c>
+      <c r="J33" t="s">
+        <v>244</v>
+      </c>
+      <c r="K33" t="s">
+        <v>245</v>
+      </c>
+      <c r="L33" t="s">
+        <v>246</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>247</v>
+      </c>
+      <c r="O33" t="s">
+        <v>131</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>248</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>249</v>
+      </c>
+      <c r="J34" t="s">
+        <v>250</v>
+      </c>
+      <c r="K34" t="s">
+        <v>251</v>
+      </c>
+      <c r="L34" t="s">
+        <v>252</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>247</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>254</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>255</v>
+      </c>
+      <c r="J35" t="s">
+        <v>256</v>
+      </c>
+      <c r="K35" t="s">
+        <v>257</v>
+      </c>
+      <c r="L35" t="s">
+        <v>258</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
         <v>259</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>260</v>
+      </c>
+      <c r="J36" t="s">
+        <v>261</v>
+      </c>
+      <c r="K36" t="s">
+        <v>262</v>
+      </c>
+      <c r="L36" t="s">
+        <v>263</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>264</v>
+      </c>
+      <c r="O36" t="s">
+        <v>93</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>265</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>266</v>
+      </c>
+      <c r="J37" t="s">
+        <v>267</v>
+      </c>
+      <c r="K37" t="s">
+        <v>268</v>
+      </c>
+      <c r="L37" t="s">
+        <v>269</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>270</v>
+      </c>
+      <c r="O37" t="s">
+        <v>162</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>271</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>272</v>
+      </c>
+      <c r="J38" t="s">
+        <v>273</v>
+      </c>
+      <c r="K38" t="s">
+        <v>274</v>
+      </c>
+      <c r="L38" t="s">
+        <v>275</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>276</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>278</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>279</v>
+      </c>
+      <c r="J39" t="s">
+        <v>280</v>
+      </c>
+      <c r="K39" t="s">
+        <v>281</v>
+      </c>
+      <c r="L39" t="s">
+        <v>282</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>283</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>284</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>285</v>
+      </c>
+      <c r="J40" t="s">
+        <v>286</v>
+      </c>
+      <c r="K40" t="s">
+        <v>287</v>
+      </c>
+      <c r="L40" t="s">
+        <v>288</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>289</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>290</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>291</v>
+      </c>
+      <c r="J41" t="s">
+        <v>292</v>
+      </c>
+      <c r="K41" t="s">
+        <v>293</v>
+      </c>
+      <c r="L41" t="s">
+        <v>294</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>289</v>
+      </c>
+      <c r="O41" t="s">
+        <v>93</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>295</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>296</v>
+      </c>
+      <c r="J42" t="s">
+        <v>297</v>
+      </c>
+      <c r="K42" t="s">
+        <v>298</v>
+      </c>
+      <c r="L42" t="s">
+        <v>299</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>300</v>
+      </c>
+      <c r="O42" t="s">
+        <v>162</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>301</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>302</v>
+      </c>
+      <c r="J43" t="s">
+        <v>303</v>
+      </c>
+      <c r="K43" t="s">
+        <v>304</v>
+      </c>
+      <c r="L43" t="s">
+        <v>305</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>300</v>
+      </c>
+      <c r="O43" t="s">
+        <v>93</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>307</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>308</v>
+      </c>
+      <c r="J44" t="s">
+        <v>309</v>
+      </c>
+      <c r="K44" t="s">
+        <v>310</v>
+      </c>
+      <c r="L44" t="s">
+        <v>311</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>312</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>314</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>315</v>
+      </c>
+      <c r="J45" t="s">
+        <v>316</v>
+      </c>
+      <c r="K45" t="s">
+        <v>317</v>
+      </c>
+      <c r="L45" t="s">
+        <v>318</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>319</v>
+      </c>
+      <c r="O45" t="s">
+        <v>93</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>320</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>321</v>
+      </c>
+      <c r="J46" t="s">
+        <v>322</v>
+      </c>
+      <c r="K46" t="s">
+        <v>323</v>
+      </c>
+      <c r="L46" t="s">
+        <v>324</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>319</v>
+      </c>
+      <c r="O46" t="s">
+        <v>93</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>325</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>326</v>
+      </c>
+      <c r="J47" t="s">
+        <v>327</v>
+      </c>
+      <c r="K47" t="s">
+        <v>328</v>
+      </c>
+      <c r="L47" t="s">
+        <v>329</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>330</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>331</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>332</v>
+      </c>
+      <c r="J48" t="s">
+        <v>333</v>
+      </c>
+      <c r="K48" t="s">
+        <v>334</v>
+      </c>
+      <c r="L48" t="s">
+        <v>335</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>336</v>
+      </c>
+      <c r="O48" t="s">
+        <v>93</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>338</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>339</v>
+      </c>
+      <c r="J49" t="s">
+        <v>340</v>
+      </c>
+      <c r="K49" t="s">
+        <v>341</v>
+      </c>
+      <c r="L49" t="s">
+        <v>342</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>343</v>
+      </c>
+      <c r="O49" t="s">
+        <v>131</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>345</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>346</v>
+      </c>
+      <c r="J50" t="s">
+        <v>347</v>
+      </c>
+      <c r="K50" t="s">
+        <v>348</v>
+      </c>
+      <c r="L50" t="s">
+        <v>349</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>350</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>352</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>353</v>
+      </c>
+      <c r="J51" t="s">
+        <v>354</v>
+      </c>
+      <c r="K51" t="s">
+        <v>355</v>
+      </c>
+      <c r="L51" t="s">
+        <v>356</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>357</v>
+      </c>
+      <c r="O51" t="s">
+        <v>93</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>60446</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>358</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>359</v>
+      </c>
+      <c r="J52" t="s">
+        <v>360</v>
+      </c>
+      <c r="K52" t="s">
+        <v>361</v>
+      </c>
+      <c r="L52" t="s">
+        <v>362</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>363</v>
+      </c>
+      <c r="O52" t="s">
+        <v>93</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
